--- a/江西/导出模板/代理购电合同分析结果.xlsx
+++ b/江西/导出模板/代理购电合同分析结果.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\code\python\calCase\江西\导出模板\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{964CC53E-FB86-463A-8D28-065F0D0EDBA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8E239485-99EC-41B5-AC8A-4F12726B0928}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8976" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="768" yWindow="768" windowWidth="17280" windowHeight="8964" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="汇总统计" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="50">
   <si>
     <t>数据项</t>
   </si>
@@ -129,7 +129,10 @@
     <t>峰平谷统计</t>
   </si>
   <si>
-    <t>机组名称</t>
+    <t>合同类型</t>
+  </si>
+  <si>
+    <t>中长期持仓均价-中长期折算日前加权均价（元/MWh）</t>
   </si>
   <si>
     <t>合同电费</t>
@@ -257,20 +260,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="46" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="46" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -280,6 +283,74 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -299,7 +370,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="CCE8CF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -555,60 +626,60 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B1" sqref="B1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="16.8" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="29.6328125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="27.36328125" style="2" customWidth="1"/>
-    <col min="5" max="6" width="20.6328125" style="2" customWidth="1"/>
-    <col min="7" max="7" width="34" style="2" customWidth="1"/>
+    <col min="3" max="3" width="29.6328125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="27.36328125" style="1" customWidth="1"/>
+    <col min="5" max="6" width="20.6328125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="34" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B2" s="2">
+      <c r="A2" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2" s="1">
         <v>1192.4218955451618</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2" s="1">
         <v>1198.8464414003765</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2" s="1">
         <v>-6.4245458552148191</v>
       </c>
-      <c r="E2" s="2">
+      <c r="E2" s="1">
         <v>26608.233548387099</v>
       </c>
-      <c r="F2" s="2">
+      <c r="F2" s="1">
         <v>448.14019441641676</v>
       </c>
-      <c r="G2" s="2">
+      <c r="G2" s="1">
         <v>450.55468985578204</v>
       </c>
     </row>
@@ -625,867 +696,867 @@
   </sheetPr>
   <dimension ref="A1:AB11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="16.8" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.36328125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="20" style="2" customWidth="1"/>
-    <col min="28" max="28" width="11" style="2"/>
+    <col min="1" max="1" width="10.36328125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="20" style="1" customWidth="1"/>
+    <col min="28" max="28" width="11" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:28" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="K1" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="L1" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="M1" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="N1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="O1" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="P1" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="Q1" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="R1" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="S1" s="3" t="s">
+      <c r="S1" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="T1" s="3" t="s">
+      <c r="T1" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="U1" s="3" t="s">
+      <c r="U1" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="V1" s="3" t="s">
+      <c r="V1" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="W1" s="3" t="s">
+      <c r="W1" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="X1" s="3" t="s">
+      <c r="X1" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="Y1" s="3" t="s">
+      <c r="Y1" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="Z1" s="3" t="s">
+      <c r="Z1" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="AA1" s="3" t="s">
+      <c r="AA1" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="AB1" s="4">
+      <c r="AB1" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:28" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="6">
+      <c r="A2" s="5">
         <v>45000</v>
       </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="2">
+      <c r="B2" s="5"/>
+      <c r="C2" s="1">
         <v>5935957.0132258069</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E2" s="2">
+      <c r="D2" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E2" s="1">
         <v>275585.67238440865</v>
       </c>
-      <c r="F2" s="2">
+      <c r="F2" s="1">
         <v>267446.76838440861</v>
       </c>
-      <c r="G2" s="2">
+      <c r="G2" s="1">
         <v>282777.29738440865</v>
       </c>
-      <c r="H2" s="2">
+      <c r="H2" s="1">
         <v>213487.84838440863</v>
       </c>
-      <c r="I2" s="2">
+      <c r="I2" s="1">
         <v>189656.69138440859</v>
       </c>
-      <c r="J2" s="2">
+      <c r="J2" s="1">
         <v>179549.6713844086</v>
       </c>
-      <c r="K2" s="2">
+      <c r="K2" s="1">
         <v>331240.08438440855</v>
       </c>
-      <c r="L2" s="2">
+      <c r="L2" s="1">
         <v>217952.3783844086</v>
       </c>
-      <c r="M2" s="2">
+      <c r="M2" s="1">
         <v>211859.7153844086</v>
       </c>
-      <c r="N2" s="2">
+      <c r="N2" s="1">
         <v>186686.77338440862</v>
       </c>
-      <c r="O2" s="2">
+      <c r="O2" s="1">
         <v>380202.27238440863</v>
       </c>
-      <c r="P2" s="2">
+      <c r="P2" s="1">
         <v>305041.66438440862</v>
       </c>
-      <c r="Q2" s="2">
+      <c r="Q2" s="1">
         <v>253743.24338440859</v>
       </c>
-      <c r="R2" s="2">
+      <c r="R2" s="1">
         <v>224099.82838440858</v>
       </c>
-      <c r="S2" s="2">
+      <c r="S2" s="1">
         <v>190784.41338440863</v>
       </c>
-      <c r="T2" s="2">
+      <c r="T2" s="1">
         <v>219504.6253844086</v>
       </c>
-      <c r="U2" s="2">
+      <c r="U2" s="1">
         <v>237896.34638440859</v>
       </c>
-      <c r="V2" s="2">
+      <c r="V2" s="1">
         <v>241130.2123844086</v>
       </c>
-      <c r="W2" s="2">
+      <c r="W2" s="1">
         <v>258592.75338440863</v>
       </c>
-      <c r="X2" s="2">
+      <c r="X2" s="1">
         <v>258390.44638440863</v>
       </c>
-      <c r="Y2" s="2">
+      <c r="Y2" s="1">
         <v>241700.0003844086</v>
       </c>
-      <c r="Z2" s="2">
+      <c r="Z2" s="1">
         <v>241187.47238440858</v>
       </c>
-      <c r="AA2" s="2">
+      <c r="AA2" s="1">
         <v>270700.52538440865</v>
       </c>
-      <c r="AB2" s="2">
+      <c r="AB2" s="1">
         <v>256740.30838440859</v>
       </c>
     </row>
     <row r="3" spans="1:28" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="6">
+      <c r="A3" s="5">
         <v>45000</v>
       </c>
-      <c r="B3" s="6"/>
-      <c r="C3" s="2">
+      <c r="B3" s="5"/>
+      <c r="C3" s="1">
+        <v>13121.266774193551</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="1">
+        <v>600.10736559139787</v>
+      </c>
+      <c r="F3" s="1">
+        <v>643.78736559139793</v>
+      </c>
+      <c r="G3" s="1">
+        <v>609.23736559139786</v>
+      </c>
+      <c r="H3" s="1">
+        <v>500.8873655913979</v>
+      </c>
+      <c r="I3" s="1">
+        <v>421.43736559139785</v>
+      </c>
+      <c r="J3" s="1">
+        <v>507.95736559139783</v>
+      </c>
+      <c r="K3" s="1">
+        <v>704.8073655913978</v>
+      </c>
+      <c r="L3" s="1">
+        <v>466.64736559139783</v>
+      </c>
+      <c r="M3" s="1">
+        <v>537.87736559139785</v>
+      </c>
+      <c r="N3" s="1">
+        <v>500.46736559139777</v>
+      </c>
+      <c r="O3" s="1">
+        <v>643.41736559139781</v>
+      </c>
+      <c r="P3" s="1">
+        <v>551.04736559139781</v>
+      </c>
+      <c r="Q3" s="1">
+        <v>580.28736559139782</v>
+      </c>
+      <c r="R3" s="1">
+        <v>468.3873655913979</v>
+      </c>
+      <c r="S3" s="1">
+        <v>508.53736559139782</v>
+      </c>
+      <c r="T3" s="1">
+        <v>557.28736559139782</v>
+      </c>
+      <c r="U3" s="1">
+        <v>605.93736559139779</v>
+      </c>
+      <c r="V3" s="1">
+        <v>458.92736559139786</v>
+      </c>
+      <c r="W3" s="1">
+        <v>579.85736559139787</v>
+      </c>
+      <c r="X3" s="1">
+        <v>503.03736559139787</v>
+      </c>
+      <c r="Y3" s="1">
+        <v>560.27736559139794</v>
+      </c>
+      <c r="Z3" s="1">
+        <v>501.89736559139783</v>
+      </c>
+      <c r="AA3" s="1">
+        <v>555.18736559139791</v>
+      </c>
+      <c r="AB3" s="1">
+        <v>553.96736559139788</v>
+      </c>
+    </row>
+    <row r="4" spans="1:28" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="5">
+        <v>45000</v>
+      </c>
+      <c r="B4" s="5"/>
+      <c r="C4" s="1">
         <v>452.39206818814472</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D4" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E4" s="1">
+        <v>459.22727862675475</v>
+      </c>
+      <c r="F4" s="1">
+        <v>415.42717778986832</v>
+      </c>
+      <c r="G4" s="1">
+        <v>464.14962928268778</v>
+      </c>
+      <c r="H4" s="1">
+        <v>426.21927213584922</v>
+      </c>
+      <c r="I4" s="1">
+        <v>450.02343614754164</v>
+      </c>
+      <c r="J4" s="1">
+        <v>353.47390065968409</v>
+      </c>
+      <c r="K4" s="1">
+        <v>469.97250675220715</v>
+      </c>
+      <c r="L4" s="1">
+        <v>467.06012817235182</v>
+      </c>
+      <c r="M4" s="1">
+        <v>393.88107575686547</v>
+      </c>
+      <c r="N4" s="1">
+        <v>373.02486879199915</v>
+      </c>
+      <c r="O4" s="1">
+        <v>590.91080333982791</v>
+      </c>
+      <c r="P4" s="1">
+        <v>553.56704964378207</v>
+      </c>
+      <c r="Q4" s="1">
+        <v>437.27170093701255</v>
+      </c>
+      <c r="R4" s="1">
+        <v>478.44977223383125</v>
+      </c>
+      <c r="S4" s="1">
+        <v>375.16301906849662</v>
+      </c>
+      <c r="T4" s="1">
+        <v>393.88049853143275</v>
+      </c>
+      <c r="U4" s="1">
+        <v>392.60880726875229</v>
+      </c>
+      <c r="V4" s="1">
+        <v>525.42129858322039</v>
+      </c>
+      <c r="W4" s="1">
+        <v>445.95924572014235</v>
+      </c>
+      <c r="X4" s="1">
+        <v>513.66054305057617</v>
+      </c>
+      <c r="Y4" s="1">
+        <v>431.39347621027559</v>
+      </c>
+      <c r="Z4" s="1">
+        <v>480.55138145666803</v>
+      </c>
+      <c r="AA4" s="1">
+        <v>487.5840881142035</v>
+      </c>
+      <c r="AB4" s="1">
+        <v>463.45746036920576</v>
+      </c>
+    </row>
+    <row r="5" spans="1:28" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="5">
+        <v>45000</v>
+      </c>
+      <c r="B5" s="5"/>
+      <c r="C5" s="1">
+        <v>462.99541685332491</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E5" s="1">
+        <v>345.3</v>
+      </c>
+      <c r="F5" s="1">
+        <v>301.75</v>
+      </c>
+      <c r="G5" s="1">
+        <v>284.75</v>
+      </c>
+      <c r="H5" s="1">
+        <v>252.75</v>
+      </c>
+      <c r="I5" s="1">
+        <v>262.25</v>
+      </c>
+      <c r="J5" s="1">
+        <v>302.75</v>
+      </c>
+      <c r="K5" s="1">
+        <v>401.04999999999995</v>
+      </c>
+      <c r="L5" s="1">
+        <v>489.25000000000006</v>
+      </c>
+      <c r="M5" s="1">
+        <v>528.74999999999989</v>
+      </c>
+      <c r="N5" s="1">
+        <v>509.25000000000006</v>
+      </c>
+      <c r="O5" s="1">
+        <v>448.35</v>
+      </c>
+      <c r="P5" s="1">
+        <v>399.20000000000005</v>
+      </c>
+      <c r="Q5" s="1">
+        <v>294</v>
+      </c>
+      <c r="R5" s="1">
+        <v>315</v>
+      </c>
+      <c r="S5" s="1">
+        <v>376.15000000000003</v>
+      </c>
+      <c r="T5" s="1">
+        <v>477.80000000000013</v>
+      </c>
+      <c r="U5" s="1">
+        <v>585.5</v>
+      </c>
+      <c r="V5" s="1">
+        <v>668</v>
+      </c>
+      <c r="W5" s="1">
+        <v>756.24999999999989</v>
+      </c>
+      <c r="X5" s="1">
+        <v>749.5</v>
+      </c>
+      <c r="Y5" s="1">
+        <v>741.99999999999989</v>
+      </c>
+      <c r="Z5" s="1">
+        <v>669.75</v>
+      </c>
+      <c r="AA5" s="1">
+        <v>555.37250000000006</v>
+      </c>
+      <c r="AB5" s="1">
+        <v>429.15000000000003</v>
+      </c>
+    </row>
+    <row r="6" spans="1:28" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="5">
+        <v>45000</v>
+      </c>
+      <c r="B6" s="5"/>
+      <c r="C6" s="1">
+        <v>-10.603348665180192</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E6" s="1">
+        <v>113.92727862675474</v>
+      </c>
+      <c r="F6" s="1">
+        <v>113.67717778986832</v>
+      </c>
+      <c r="G6" s="1">
+        <v>179.39962928268778</v>
+      </c>
+      <c r="H6" s="1">
+        <v>173.46927213584922</v>
+      </c>
+      <c r="I6" s="1">
+        <v>187.77343614754164</v>
+      </c>
+      <c r="J6" s="1">
+        <v>50.723900659684091</v>
+      </c>
+      <c r="K6" s="1">
+        <v>68.922506752207198</v>
+      </c>
+      <c r="L6" s="1">
+        <v>-22.189871827648233</v>
+      </c>
+      <c r="M6" s="1">
+        <v>-134.86892424313442</v>
+      </c>
+      <c r="N6" s="1">
+        <v>-136.2251312080009</v>
+      </c>
+      <c r="O6" s="1">
+        <v>142.56080333982788</v>
+      </c>
+      <c r="P6" s="1">
+        <v>154.36704964378202</v>
+      </c>
+      <c r="Q6" s="1">
+        <v>143.27170093701255</v>
+      </c>
+      <c r="R6" s="1">
+        <v>163.44977223383125</v>
+      </c>
+      <c r="S6" s="1">
+        <v>-0.98698093150341037</v>
+      </c>
+      <c r="T6" s="1">
+        <v>-83.919501468567375</v>
+      </c>
+      <c r="U6" s="1">
+        <v>-192.89119273124771</v>
+      </c>
+      <c r="V6" s="1">
+        <v>-142.57870141677961</v>
+      </c>
+      <c r="W6" s="1">
+        <v>-310.29075427985754</v>
+      </c>
+      <c r="X6" s="1">
+        <v>-235.83945694942383</v>
+      </c>
+      <c r="Y6" s="1">
+        <v>-310.60652378972429</v>
+      </c>
+      <c r="Z6" s="1">
+        <v>-189.19861854333197</v>
+      </c>
+      <c r="AA6" s="1">
+        <v>-67.788411885796563</v>
+      </c>
+      <c r="AB6" s="1">
+        <v>34.307460369205728</v>
+      </c>
+    </row>
+    <row r="7" spans="1:28" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="5">
+        <v>45001</v>
+      </c>
+      <c r="B7" s="5"/>
+      <c r="C7" s="1">
+        <v>5988261.9422258064</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="E3" s="2">
-        <v>459.22727862675475</v>
-      </c>
-      <c r="F3" s="2">
-        <v>415.42717778986832</v>
-      </c>
-      <c r="G3" s="2">
-        <v>464.14962928268778</v>
-      </c>
-      <c r="H3" s="2">
-        <v>426.21927213584922</v>
-      </c>
-      <c r="I3" s="2">
-        <v>450.02343614754164</v>
-      </c>
-      <c r="J3" s="2">
-        <v>353.47390065968409</v>
-      </c>
-      <c r="K3" s="2">
-        <v>469.97250675220715</v>
-      </c>
-      <c r="L3" s="2">
-        <v>467.06012817235182</v>
-      </c>
-      <c r="M3" s="2">
-        <v>393.88107575686547</v>
-      </c>
-      <c r="N3" s="2">
-        <v>373.02486879199915</v>
-      </c>
-      <c r="O3" s="2">
-        <v>590.91080333982791</v>
-      </c>
-      <c r="P3" s="2">
-        <v>553.56704964378207</v>
-      </c>
-      <c r="Q3" s="2">
-        <v>437.27170093701255</v>
-      </c>
-      <c r="R3" s="2">
-        <v>478.44977223383125</v>
-      </c>
-      <c r="S3" s="2">
-        <v>375.16301906849662</v>
-      </c>
-      <c r="T3" s="2">
-        <v>393.88049853143275</v>
-      </c>
-      <c r="U3" s="2">
-        <v>392.60880726875229</v>
-      </c>
-      <c r="V3" s="2">
-        <v>525.42129858322039</v>
-      </c>
-      <c r="W3" s="2">
-        <v>445.95924572014235</v>
-      </c>
-      <c r="X3" s="2">
-        <v>513.66054305057617</v>
-      </c>
-      <c r="Y3" s="2">
-        <v>431.39347621027559</v>
-      </c>
-      <c r="Z3" s="2">
-        <v>480.55138145666803</v>
-      </c>
-      <c r="AA3" s="2">
-        <v>487.5840881142035</v>
-      </c>
-      <c r="AB3" s="2">
-        <v>463.45746036920576</v>
-      </c>
-    </row>
-    <row r="4" spans="1:28" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="6">
-        <v>45000</v>
-      </c>
-      <c r="B4" s="6"/>
-      <c r="C4" s="2">
-        <v>462.99541685332491</v>
-      </c>
-      <c r="D4" s="2" t="s">
+      <c r="E7" s="1">
+        <v>272473.61438440857</v>
+      </c>
+      <c r="F7" s="1">
+        <v>279036.8513844086</v>
+      </c>
+      <c r="G7" s="1">
+        <v>296640.2863844086</v>
+      </c>
+      <c r="H7" s="1">
+        <v>268300.85138440866</v>
+      </c>
+      <c r="I7" s="1">
+        <v>353103.77738440863</v>
+      </c>
+      <c r="J7" s="1">
+        <v>251285.68038440862</v>
+      </c>
+      <c r="K7" s="1">
+        <v>201028.1393844086</v>
+      </c>
+      <c r="L7" s="1">
+        <v>221961.67038440859</v>
+      </c>
+      <c r="M7" s="1">
+        <v>230433.84138440862</v>
+      </c>
+      <c r="N7" s="1">
+        <v>297655.44538440858</v>
+      </c>
+      <c r="O7" s="1">
+        <v>246255.44538440864</v>
+      </c>
+      <c r="P7" s="1">
+        <v>288046.18938440864</v>
+      </c>
+      <c r="Q7" s="1">
+        <v>235269.31938440859</v>
+      </c>
+      <c r="R7" s="1">
+        <v>189320.0903844086</v>
+      </c>
+      <c r="S7" s="1">
+        <v>263931.43538440857</v>
+      </c>
+      <c r="T7" s="1">
+        <v>259097.67238440865</v>
+      </c>
+      <c r="U7" s="1">
+        <v>262439.67738440866</v>
+      </c>
+      <c r="V7" s="1">
+        <v>229208.78538440861</v>
+      </c>
+      <c r="W7" s="1">
+        <v>292788.00638440863</v>
+      </c>
+      <c r="X7" s="1">
+        <v>229072.57638440863</v>
+      </c>
+      <c r="Y7" s="1">
+        <v>164200.46438440861</v>
+      </c>
+      <c r="Z7" s="1">
+        <v>206663.10438440862</v>
+      </c>
+      <c r="AA7" s="1">
+        <v>278031.90638440859</v>
+      </c>
+      <c r="AB7" s="1">
+        <v>172017.11138440861</v>
+      </c>
+    </row>
+    <row r="8" spans="1:28" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="5">
+        <v>45001</v>
+      </c>
+      <c r="B8" s="5"/>
+      <c r="C8" s="1">
+        <v>13486.966774193546</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E8" s="1">
+        <v>639.3073655913978</v>
+      </c>
+      <c r="F8" s="1">
+        <v>611.61736559139786</v>
+      </c>
+      <c r="G8" s="1">
+        <v>631.8173655913979</v>
+      </c>
+      <c r="H8" s="1">
+        <v>611.50736559139796</v>
+      </c>
+      <c r="I8" s="1">
+        <v>634.82736559139789</v>
+      </c>
+      <c r="J8" s="1">
+        <v>520.66736559139781</v>
+      </c>
+      <c r="K8" s="1">
+        <v>572.4473655913979</v>
+      </c>
+      <c r="L8" s="1">
+        <v>466.89736559139783</v>
+      </c>
+      <c r="M8" s="1">
+        <v>508.03736559139782</v>
+      </c>
+      <c r="N8" s="1">
+        <v>611.63736559139784</v>
+      </c>
+      <c r="O8" s="1">
+        <v>592.54736559139781</v>
+      </c>
+      <c r="P8" s="1">
+        <v>619.44736559139778</v>
+      </c>
+      <c r="Q8" s="1">
+        <v>527.87736559139785</v>
+      </c>
+      <c r="R8" s="1">
+        <v>491.8173655913979</v>
+      </c>
+      <c r="S8" s="1">
+        <v>531.11736559139786</v>
+      </c>
+      <c r="T8" s="1">
+        <v>610.05736559139791</v>
+      </c>
+      <c r="U8" s="1">
+        <v>573.21736559139788</v>
+      </c>
+      <c r="V8" s="1">
+        <v>538.79736559139792</v>
+      </c>
+      <c r="W8" s="1">
+        <v>597.05736559139791</v>
+      </c>
+      <c r="X8" s="1">
+        <v>530.47736559139776</v>
+      </c>
+      <c r="Y8" s="1">
+        <v>362.60736559139787</v>
+      </c>
+      <c r="Z8" s="1">
+        <v>620.20736559139777</v>
+      </c>
+      <c r="AA8" s="1">
+        <v>527.89736559139783</v>
+      </c>
+      <c r="AB8" s="1">
+        <v>555.07736559139789</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="5">
+        <v>45001</v>
+      </c>
+      <c r="B9" s="5"/>
+      <c r="C9" s="1">
+        <v>444.00361048445416</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E4" s="2">
-        <v>345.3</v>
-      </c>
-      <c r="F4" s="2">
-        <v>301.75</v>
-      </c>
-      <c r="G4" s="2">
-        <v>284.75</v>
-      </c>
-      <c r="H4" s="2">
-        <v>252.75</v>
-      </c>
-      <c r="I4" s="2">
-        <v>262.25</v>
-      </c>
-      <c r="J4" s="2">
-        <v>302.75</v>
-      </c>
-      <c r="K4" s="2">
-        <v>401.04999999999995</v>
-      </c>
-      <c r="L4" s="2">
-        <v>489.25000000000006</v>
-      </c>
-      <c r="M4" s="2">
-        <v>528.74999999999989</v>
-      </c>
-      <c r="N4" s="2">
-        <v>509.25000000000006</v>
-      </c>
-      <c r="O4" s="2">
-        <v>448.35</v>
-      </c>
-      <c r="P4" s="2">
-        <v>399.20000000000005</v>
-      </c>
-      <c r="Q4" s="2">
-        <v>294</v>
-      </c>
-      <c r="R4" s="2">
-        <v>315</v>
-      </c>
-      <c r="S4" s="2">
-        <v>376.15000000000003</v>
-      </c>
-      <c r="T4" s="2">
-        <v>477.80000000000013</v>
-      </c>
-      <c r="U4" s="2">
-        <v>585.5</v>
-      </c>
-      <c r="V4" s="2">
-        <v>668</v>
-      </c>
-      <c r="W4" s="2">
-        <v>756.24999999999989</v>
-      </c>
-      <c r="X4" s="2">
-        <v>749.5</v>
-      </c>
-      <c r="Y4" s="2">
-        <v>741.99999999999989</v>
-      </c>
-      <c r="Z4" s="2">
-        <v>669.75</v>
-      </c>
-      <c r="AA4" s="2">
-        <v>555.37250000000006</v>
-      </c>
-      <c r="AB4" s="2">
-        <v>429.15000000000003</v>
-      </c>
-    </row>
-    <row r="5" spans="1:28" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="6">
-        <v>45000</v>
-      </c>
-      <c r="B5" s="6"/>
-      <c r="C5" s="2">
-        <v>13121.266774193551</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E5" s="2">
-        <v>600.10736559139787</v>
-      </c>
-      <c r="F5" s="2">
-        <v>643.78736559139793</v>
-      </c>
-      <c r="G5" s="2">
-        <v>609.23736559139786</v>
-      </c>
-      <c r="H5" s="2">
-        <v>500.8873655913979</v>
-      </c>
-      <c r="I5" s="2">
-        <v>421.43736559139785</v>
-      </c>
-      <c r="J5" s="2">
-        <v>507.95736559139783</v>
-      </c>
-      <c r="K5" s="2">
-        <v>704.8073655913978</v>
-      </c>
-      <c r="L5" s="2">
-        <v>466.64736559139783</v>
-      </c>
-      <c r="M5" s="2">
-        <v>537.87736559139785</v>
-      </c>
-      <c r="N5" s="2">
-        <v>500.46736559139777</v>
-      </c>
-      <c r="O5" s="2">
-        <v>643.41736559139781</v>
-      </c>
-      <c r="P5" s="2">
-        <v>551.04736559139781</v>
-      </c>
-      <c r="Q5" s="2">
-        <v>580.28736559139782</v>
-      </c>
-      <c r="R5" s="2">
-        <v>468.3873655913979</v>
-      </c>
-      <c r="S5" s="2">
-        <v>508.53736559139782</v>
-      </c>
-      <c r="T5" s="2">
-        <v>557.28736559139782</v>
-      </c>
-      <c r="U5" s="2">
-        <v>605.93736559139779</v>
-      </c>
-      <c r="V5" s="2">
-        <v>458.92736559139786</v>
-      </c>
-      <c r="W5" s="2">
-        <v>579.85736559139787</v>
-      </c>
-      <c r="X5" s="2">
-        <v>503.03736559139787</v>
-      </c>
-      <c r="Y5" s="2">
-        <v>560.27736559139794</v>
-      </c>
-      <c r="Z5" s="2">
-        <v>501.89736559139783</v>
-      </c>
-      <c r="AA5" s="2">
-        <v>555.18736559139791</v>
-      </c>
-      <c r="AB5" s="2">
-        <v>553.96736559139788</v>
-      </c>
-    </row>
-    <row r="6" spans="1:28" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="6">
-        <v>45000</v>
-      </c>
-      <c r="B6" s="6"/>
-      <c r="C6" s="2">
-        <v>-10.603348665180192</v>
-      </c>
-      <c r="D6" s="2" t="s">
+      <c r="E9" s="1">
+        <v>426.20127508206338</v>
+      </c>
+      <c r="F9" s="1">
+        <v>456.22781020057607</v>
+      </c>
+      <c r="G9" s="1">
+        <v>469.50321808066383</v>
+      </c>
+      <c r="H9" s="1">
+        <v>438.75326199044366</v>
+      </c>
+      <c r="I9" s="1">
+        <v>556.22015767304106</v>
+      </c>
+      <c r="J9" s="1">
+        <v>482.62229782538196</v>
+      </c>
+      <c r="K9" s="1">
+        <v>351.17314091702656</v>
+      </c>
+      <c r="L9" s="1">
+        <v>475.39713594926747</v>
+      </c>
+      <c r="M9" s="1">
+        <v>453.57656147233268</v>
+      </c>
+      <c r="N9" s="1">
+        <v>486.65346842667594</v>
+      </c>
+      <c r="O9" s="1">
+        <v>415.58778198031638</v>
+      </c>
+      <c r="P9" s="1">
+        <v>465.00510839917069</v>
+      </c>
+      <c r="Q9" s="1">
+        <v>445.68934892828537</v>
+      </c>
+      <c r="R9" s="1">
+        <v>384.93982447479459</v>
+      </c>
+      <c r="S9" s="1">
+        <v>496.93618112170287</v>
+      </c>
+      <c r="T9" s="1">
+        <v>424.71034200732231</v>
+      </c>
+      <c r="U9" s="1">
+        <v>457.83622956650186</v>
+      </c>
+      <c r="V9" s="1">
+        <v>425.40814046635717</v>
+      </c>
+      <c r="W9" s="1">
+        <v>490.38505051251803</v>
+      </c>
+      <c r="X9" s="1">
+        <v>431.82346928040783</v>
+      </c>
+      <c r="Y9" s="1">
+        <v>452.83267789280654</v>
+      </c>
+      <c r="Z9" s="1">
+        <v>333.21614003623665</v>
+      </c>
+      <c r="AA9" s="1">
+        <v>526.67795769909253</v>
+      </c>
+      <c r="AB9" s="1">
+        <v>309.89754230229846</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="5">
+        <v>45001</v>
+      </c>
+      <c r="C10">
+        <v>438.45129399719519</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="E6" s="2">
-        <v>113.92727862675474</v>
-      </c>
-      <c r="F6" s="2">
-        <v>113.67717778986832</v>
-      </c>
-      <c r="G6" s="2">
-        <v>179.39962928268778</v>
-      </c>
-      <c r="H6" s="2">
-        <v>173.46927213584922</v>
-      </c>
-      <c r="I6" s="2">
-        <v>187.77343614754164</v>
-      </c>
-      <c r="J6" s="2">
-        <v>50.723900659684091</v>
-      </c>
-      <c r="K6" s="2">
-        <v>68.922506752207198</v>
-      </c>
-      <c r="L6" s="2">
-        <v>-22.189871827648233</v>
-      </c>
-      <c r="M6" s="2">
-        <v>-134.86892424313442</v>
-      </c>
-      <c r="N6" s="2">
-        <v>-136.2251312080009</v>
-      </c>
-      <c r="O6" s="2">
-        <v>142.56080333982788</v>
-      </c>
-      <c r="P6" s="2">
-        <v>154.36704964378202</v>
-      </c>
-      <c r="Q6" s="2">
-        <v>143.27170093701255</v>
-      </c>
-      <c r="R6" s="2">
-        <v>163.44977223383125</v>
-      </c>
-      <c r="S6" s="2">
-        <v>-0.98698093150341037</v>
-      </c>
-      <c r="T6" s="2">
-        <v>-83.919501468567375</v>
-      </c>
-      <c r="U6" s="2">
-        <v>-192.89119273124771</v>
-      </c>
-      <c r="V6" s="2">
-        <v>-142.57870141677961</v>
-      </c>
-      <c r="W6" s="2">
-        <v>-310.29075427985754</v>
-      </c>
-      <c r="X6" s="2">
-        <v>-235.83945694942383</v>
-      </c>
-      <c r="Y6" s="2">
-        <v>-310.60652378972429</v>
-      </c>
-      <c r="Z6" s="2">
-        <v>-189.19861854333197</v>
-      </c>
-      <c r="AA6" s="2">
-        <v>-67.788411885796563</v>
-      </c>
-      <c r="AB6" s="2">
-        <v>34.307460369205728</v>
-      </c>
-    </row>
-    <row r="7" spans="1:28" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="6">
-        <v>45001</v>
-      </c>
-      <c r="B7" s="6"/>
-      <c r="C7" s="2">
-        <v>5988261.9422258064</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E7" s="2">
-        <v>272473.61438440857</v>
-      </c>
-      <c r="F7" s="2">
-        <v>279036.8513844086</v>
-      </c>
-      <c r="G7" s="2">
-        <v>296640.2863844086</v>
-      </c>
-      <c r="H7" s="2">
-        <v>268300.85138440866</v>
-      </c>
-      <c r="I7" s="2">
-        <v>353103.77738440863</v>
-      </c>
-      <c r="J7" s="2">
-        <v>251285.68038440862</v>
-      </c>
-      <c r="K7" s="2">
-        <v>201028.1393844086</v>
-      </c>
-      <c r="L7" s="2">
-        <v>221961.67038440859</v>
-      </c>
-      <c r="M7" s="2">
-        <v>230433.84138440862</v>
-      </c>
-      <c r="N7" s="2">
-        <v>297655.44538440858</v>
-      </c>
-      <c r="O7" s="2">
-        <v>246255.44538440864</v>
-      </c>
-      <c r="P7" s="2">
-        <v>288046.18938440864</v>
-      </c>
-      <c r="Q7" s="2">
-        <v>235269.31938440859</v>
-      </c>
-      <c r="R7" s="2">
-        <v>189320.0903844086</v>
-      </c>
-      <c r="S7" s="2">
-        <v>263931.43538440857</v>
-      </c>
-      <c r="T7" s="2">
-        <v>259097.67238440865</v>
-      </c>
-      <c r="U7" s="2">
-        <v>262439.67738440866</v>
-      </c>
-      <c r="V7" s="2">
-        <v>229208.78538440861</v>
-      </c>
-      <c r="W7" s="2">
-        <v>292788.00638440863</v>
-      </c>
-      <c r="X7" s="2">
-        <v>229072.57638440863</v>
-      </c>
-      <c r="Y7" s="2">
-        <v>164200.46438440861</v>
-      </c>
-      <c r="Z7" s="2">
-        <v>206663.10438440862</v>
-      </c>
-      <c r="AA7" s="2">
-        <v>278031.90638440859</v>
-      </c>
-      <c r="AB7" s="2">
-        <v>172017.11138440861</v>
-      </c>
-    </row>
-    <row r="8" spans="1:28" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="6">
-        <v>45001</v>
-      </c>
-      <c r="B8" s="6"/>
-      <c r="C8" s="2">
-        <v>444.00361048445416</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="E8" s="2">
-        <v>426.20127508206338</v>
-      </c>
-      <c r="F8" s="2">
-        <v>456.22781020057607</v>
-      </c>
-      <c r="G8" s="2">
-        <v>469.50321808066383</v>
-      </c>
-      <c r="H8" s="2">
-        <v>438.75326199044366</v>
-      </c>
-      <c r="I8" s="2">
-        <v>556.22015767304106</v>
-      </c>
-      <c r="J8" s="2">
-        <v>482.62229782538196</v>
-      </c>
-      <c r="K8" s="2">
-        <v>351.17314091702656</v>
-      </c>
-      <c r="L8" s="2">
-        <v>475.39713594926747</v>
-      </c>
-      <c r="M8" s="2">
-        <v>453.57656147233268</v>
-      </c>
-      <c r="N8" s="2">
-        <v>486.65346842667594</v>
-      </c>
-      <c r="O8" s="2">
-        <v>415.58778198031638</v>
-      </c>
-      <c r="P8" s="2">
-        <v>465.00510839917069</v>
-      </c>
-      <c r="Q8" s="2">
-        <v>445.68934892828537</v>
-      </c>
-      <c r="R8" s="2">
-        <v>384.93982447479459</v>
-      </c>
-      <c r="S8" s="2">
-        <v>496.93618112170287</v>
-      </c>
-      <c r="T8" s="2">
-        <v>424.71034200732231</v>
-      </c>
-      <c r="U8" s="2">
-        <v>457.83622956650186</v>
-      </c>
-      <c r="V8" s="2">
-        <v>425.40814046635717</v>
-      </c>
-      <c r="W8" s="2">
-        <v>490.38505051251803</v>
-      </c>
-      <c r="X8" s="2">
-        <v>431.82346928040783</v>
-      </c>
-      <c r="Y8" s="2">
-        <v>452.83267789280654</v>
-      </c>
-      <c r="Z8" s="2">
-        <v>333.21614003623665</v>
-      </c>
-      <c r="AA8" s="2">
-        <v>526.67795769909253</v>
-      </c>
-      <c r="AB8" s="2">
-        <v>309.89754230229846</v>
-      </c>
-    </row>
-    <row r="9" spans="1:28" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="6">
-        <v>45001</v>
-      </c>
-      <c r="B9" s="6"/>
-      <c r="C9" s="2">
-        <v>438.45129399719519</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E9" s="2">
+      <c r="E10">
         <v>405.86859277875243</v>
       </c>
-      <c r="F9" s="2">
+      <c r="F10">
         <v>608.48139778845666</v>
       </c>
-      <c r="G9" s="2">
+      <c r="G10">
         <v>494.5519563383167</v>
       </c>
-      <c r="H9" s="2">
+      <c r="H10">
         <v>324.10475386971217</v>
       </c>
-      <c r="I9" s="2">
+      <c r="I10">
         <v>432.24188732390974</v>
       </c>
-      <c r="J9" s="2">
+      <c r="J10">
         <v>432.92601387611211</v>
       </c>
-      <c r="K9" s="2">
+      <c r="K10">
         <v>431.40301420936379</v>
       </c>
-      <c r="L9" s="2">
+      <c r="L10">
         <v>594.89142883598663</v>
       </c>
-      <c r="M9" s="2">
+      <c r="M10">
         <v>433.60258961457725</v>
       </c>
-      <c r="N9" s="2">
+      <c r="N10">
         <v>492.36453223170145</v>
       </c>
-      <c r="O9" s="2">
+      <c r="O10">
         <v>377.48599564587232</v>
       </c>
-      <c r="P9" s="2">
+      <c r="P10">
         <v>377.9077033793389</v>
       </c>
-      <c r="Q9" s="2">
+      <c r="Q10">
         <v>498.49792724467909</v>
       </c>
-      <c r="R9" s="2">
+      <c r="R10">
         <v>506.65239048244689</v>
       </c>
-      <c r="S9" s="2">
+      <c r="S10">
         <v>493.41063700761521</v>
       </c>
-      <c r="T9" s="2">
+      <c r="T10">
         <v>446.67614876007156</v>
       </c>
-      <c r="U9" s="2">
+      <c r="U10">
         <v>326.45198577956927</v>
       </c>
-      <c r="V9" s="2">
+      <c r="V10">
         <v>384.30343056359783</v>
       </c>
-      <c r="W9" s="2">
+      <c r="W10">
         <v>311.09733580966576</v>
       </c>
-      <c r="X9" s="2">
+      <c r="X10">
         <v>326.57403431368726</v>
       </c>
-      <c r="Y9" s="2">
+      <c r="Y10">
         <v>335.38373914170319</v>
       </c>
-      <c r="Z9" s="2">
+      <c r="Z10">
         <v>511.64050585188431</v>
       </c>
-      <c r="AA9" s="2">
+      <c r="AA10">
         <v>515.30223438497285</v>
       </c>
-      <c r="AB9" s="2">
+      <c r="AB10" s="1">
         <v>461.81439154902267</v>
       </c>
     </row>
-    <row r="10" spans="1:28" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="6">
-        <v>45001</v>
-      </c>
-      <c r="C10">
-        <v>13486.966774193546</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E10">
-        <v>639.3073655913978</v>
-      </c>
-      <c r="F10">
-        <v>611.61736559139786</v>
-      </c>
-      <c r="G10">
-        <v>631.8173655913979</v>
-      </c>
-      <c r="H10">
-        <v>611.50736559139796</v>
-      </c>
-      <c r="I10">
-        <v>634.82736559139789</v>
-      </c>
-      <c r="J10">
-        <v>520.66736559139781</v>
-      </c>
-      <c r="K10">
-        <v>572.4473655913979</v>
-      </c>
-      <c r="L10">
-        <v>466.89736559139783</v>
-      </c>
-      <c r="M10">
-        <v>508.03736559139782</v>
-      </c>
-      <c r="N10">
-        <v>611.63736559139784</v>
-      </c>
-      <c r="O10">
-        <v>592.54736559139781</v>
-      </c>
-      <c r="P10">
-        <v>619.44736559139778</v>
-      </c>
-      <c r="Q10">
-        <v>527.87736559139785</v>
-      </c>
-      <c r="R10">
-        <v>491.8173655913979</v>
-      </c>
-      <c r="S10">
-        <v>531.11736559139786</v>
-      </c>
-      <c r="T10">
-        <v>610.05736559139791</v>
-      </c>
-      <c r="U10">
-        <v>573.21736559139788</v>
-      </c>
-      <c r="V10">
-        <v>538.79736559139792</v>
-      </c>
-      <c r="W10">
-        <v>597.05736559139791</v>
-      </c>
-      <c r="X10">
-        <v>530.47736559139776</v>
-      </c>
-      <c r="Y10">
-        <v>362.60736559139787</v>
-      </c>
-      <c r="Z10">
-        <v>620.20736559139777</v>
-      </c>
-      <c r="AA10">
-        <v>527.89736559139783</v>
-      </c>
-      <c r="AB10" s="2">
-        <v>555.07736559139789</v>
-      </c>
-    </row>
     <row r="11" spans="1:28" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="6">
+      <c r="A11" s="5">
         <v>45001</v>
       </c>
       <c r="C11">
         <v>5.5523164872589632</v>
       </c>
-      <c r="D11" s="2" t="s">
-        <v>38</v>
+      <c r="D11" s="1" t="s">
+        <v>39</v>
       </c>
       <c r="E11">
         <v>20.332682303310946</v>
@@ -1556,7 +1627,7 @@
       <c r="AA11">
         <v>11.375723314119682</v>
       </c>
-      <c r="AB11" s="2">
+      <c r="AB11" s="1">
         <v>-151.91684924672421</v>
       </c>
     </row>
@@ -1579,440 +1650,440 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="16.8" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.36328125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="20" style="2" customWidth="1"/>
-    <col min="28" max="28" width="11" style="2"/>
+    <col min="1" max="1" width="10.36328125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="20" style="1" customWidth="1"/>
+    <col min="28" max="28" width="11" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:28" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="K1" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="L1" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="M1" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="N1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="O1" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="P1" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="Q1" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="R1" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="S1" s="3" t="s">
+      <c r="S1" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="T1" s="3" t="s">
+      <c r="T1" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="U1" s="3" t="s">
+      <c r="U1" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="V1" s="3" t="s">
+      <c r="V1" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="W1" s="3" t="s">
+      <c r="W1" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="X1" s="3" t="s">
+      <c r="X1" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="Y1" s="3" t="s">
+      <c r="Y1" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="Z1" s="3" t="s">
+      <c r="Z1" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="AA1" s="3" t="s">
+      <c r="AA1" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="AB1" s="4">
+      <c r="AB1" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:28" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="6">
+      <c r="A2" s="5">
         <v>45000</v>
       </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="2">
+      <c r="B2" s="5"/>
+      <c r="C2" s="1">
         <v>5935957.0132258069</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E2" s="2">
+      <c r="D2" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E2" s="1">
         <v>275585.67238440865</v>
       </c>
-      <c r="F2" s="2">
+      <c r="F2" s="1">
         <v>267446.76838440861</v>
       </c>
-      <c r="G2" s="2">
+      <c r="G2" s="1">
         <v>282777.29738440865</v>
       </c>
-      <c r="H2" s="2">
+      <c r="H2" s="1">
         <v>213487.84838440863</v>
       </c>
-      <c r="I2" s="2">
+      <c r="I2" s="1">
         <v>189656.69138440859</v>
       </c>
-      <c r="J2" s="2">
+      <c r="J2" s="1">
         <v>179549.6713844086</v>
       </c>
-      <c r="K2" s="2">
+      <c r="K2" s="1">
         <v>331240.08438440855</v>
       </c>
-      <c r="L2" s="2">
+      <c r="L2" s="1">
         <v>217952.3783844086</v>
       </c>
-      <c r="M2" s="2">
+      <c r="M2" s="1">
         <v>211859.7153844086</v>
       </c>
-      <c r="N2" s="2">
+      <c r="N2" s="1">
         <v>186686.77338440862</v>
       </c>
-      <c r="O2" s="2">
+      <c r="O2" s="1">
         <v>380202.27238440863</v>
       </c>
-      <c r="P2" s="2">
+      <c r="P2" s="1">
         <v>305041.66438440862</v>
       </c>
-      <c r="Q2" s="2">
+      <c r="Q2" s="1">
         <v>253743.24338440859</v>
       </c>
-      <c r="R2" s="2">
+      <c r="R2" s="1">
         <v>224099.82838440858</v>
       </c>
-      <c r="S2" s="2">
+      <c r="S2" s="1">
         <v>190784.41338440863</v>
       </c>
-      <c r="T2" s="2">
+      <c r="T2" s="1">
         <v>219504.6253844086</v>
       </c>
-      <c r="U2" s="2">
+      <c r="U2" s="1">
         <v>237896.34638440859</v>
       </c>
-      <c r="V2" s="2">
+      <c r="V2" s="1">
         <v>241130.2123844086</v>
       </c>
-      <c r="W2" s="2">
+      <c r="W2" s="1">
         <v>258592.75338440863</v>
       </c>
-      <c r="X2" s="2">
+      <c r="X2" s="1">
         <v>258390.44638440863</v>
       </c>
-      <c r="Y2" s="2">
+      <c r="Y2" s="1">
         <v>241700.0003844086</v>
       </c>
-      <c r="Z2" s="2">
+      <c r="Z2" s="1">
         <v>241187.47238440858</v>
       </c>
-      <c r="AA2" s="2">
+      <c r="AA2" s="1">
         <v>270700.52538440865</v>
       </c>
-      <c r="AB2" s="2">
+      <c r="AB2" s="1">
         <v>256740.30838440859</v>
       </c>
     </row>
     <row r="3" spans="1:28" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="6">
+      <c r="A3" s="5">
         <v>45000</v>
       </c>
-      <c r="B3" s="6"/>
-      <c r="C3" s="2">
+      <c r="B3" s="5"/>
+      <c r="C3" s="1">
         <v>6075086.3797614248</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E3" s="2">
+      <c r="D3" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E3" s="1">
         <v>207217.07333870968</v>
       </c>
-      <c r="F3" s="2">
+      <c r="F3" s="1">
         <v>194262.83756720432</v>
       </c>
-      <c r="G3" s="2">
+      <c r="G3" s="1">
         <v>173480.33985215053</v>
       </c>
-      <c r="H3" s="2">
+      <c r="H3" s="1">
         <v>126599.28165322581</v>
       </c>
-      <c r="I3" s="2">
+      <c r="I3" s="1">
         <v>110521.94912634409</v>
       </c>
-      <c r="J3" s="2">
+      <c r="J3" s="1">
         <v>153784.0924327957</v>
       </c>
-      <c r="K3" s="2">
+      <c r="K3" s="1">
         <v>282662.99397043005</v>
       </c>
-      <c r="L3" s="2">
+      <c r="L3" s="1">
         <v>228307.22361559141</v>
       </c>
-      <c r="M3" s="2">
+      <c r="M3" s="1">
         <v>284402.65705645154</v>
       </c>
-      <c r="N3" s="2">
+      <c r="N3" s="1">
         <v>254863.00592741935</v>
       </c>
-      <c r="O3" s="2">
+      <c r="O3" s="1">
         <v>288476.17586290324</v>
       </c>
-      <c r="P3" s="2">
+      <c r="P3" s="1">
         <v>219978.10834408604</v>
       </c>
-      <c r="Q3" s="2">
+      <c r="Q3" s="1">
         <v>170604.48548387096</v>
       </c>
-      <c r="R3" s="2">
+      <c r="R3" s="1">
         <v>147542.02016129033</v>
       </c>
-      <c r="S3" s="2">
+      <c r="S3" s="1">
         <v>191286.33006720431</v>
       </c>
-      <c r="T3" s="2">
+      <c r="T3" s="1">
         <v>266271.90327956993</v>
       </c>
-      <c r="U3" s="2">
+      <c r="U3" s="1">
         <v>354776.3275537634</v>
       </c>
-      <c r="V3" s="2">
+      <c r="V3" s="1">
         <v>306563.48021505377</v>
       </c>
-      <c r="W3" s="2">
+      <c r="W3" s="1">
         <v>438517.13272849459</v>
       </c>
-      <c r="X3" s="2">
+      <c r="X3" s="1">
         <v>377026.50551075273</v>
       </c>
-      <c r="Y3" s="2">
+      <c r="Y3" s="1">
         <v>415725.80526881723</v>
       </c>
-      <c r="Z3" s="2">
+      <c r="Z3" s="1">
         <v>336145.76060483872</v>
       </c>
-      <c r="AA3" s="2">
+      <c r="AA3" s="1">
         <v>308335.79519690864</v>
       </c>
-      <c r="AB3" s="2">
+      <c r="AB3" s="1">
         <v>237735.09494354841</v>
       </c>
     </row>
     <row r="4" spans="1:28" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="6">
+      <c r="A4" s="5">
         <v>45000</v>
       </c>
-      <c r="B4" s="6"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="E4" s="2">
+      <c r="B4" s="5"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E4" s="1">
         <v>68368.599045698968</v>
       </c>
-      <c r="F4" s="2">
+      <c r="F4" s="1">
         <v>73183.930817204295</v>
       </c>
-      <c r="G4" s="2">
+      <c r="G4" s="1">
         <v>109296.95753225812</v>
       </c>
-      <c r="H4" s="2">
+      <c r="H4" s="1">
         <v>86888.566731182815</v>
       </c>
-      <c r="I4" s="2">
+      <c r="I4" s="1">
         <v>79134.742258064507</v>
       </c>
-      <c r="J4" s="2">
+      <c r="J4" s="1">
         <v>25765.578951612901</v>
       </c>
-      <c r="K4" s="2">
+      <c r="K4" s="1">
         <v>48577.090413978498</v>
       </c>
-      <c r="L4" s="2">
+      <c r="L4" s="1">
         <v>-10354.845231182815</v>
       </c>
-      <c r="M4" s="2">
+      <c r="M4" s="1">
         <v>-72542.941672042944</v>
       </c>
-      <c r="N4" s="2">
+      <c r="N4" s="1">
         <v>-68176.23254301073</v>
       </c>
-      <c r="O4" s="2">
+      <c r="O4" s="1">
         <v>91726.096521505387</v>
       </c>
-      <c r="P4" s="2">
+      <c r="P4" s="1">
         <v>85063.556040322583</v>
       </c>
-      <c r="Q4" s="2">
+      <c r="Q4" s="1">
         <v>83138.757900537632</v>
       </c>
-      <c r="R4" s="2">
+      <c r="R4" s="1">
         <v>76557.808223118249</v>
       </c>
-      <c r="S4" s="2">
+      <c r="S4" s="1">
         <v>-501.91668279567966</v>
       </c>
-      <c r="T4" s="2">
+      <c r="T4" s="1">
         <v>-46767.277895161329</v>
       </c>
-      <c r="U4" s="2">
+      <c r="U4" s="1">
         <v>-116879.98116935481</v>
       </c>
-      <c r="V4" s="2">
+      <c r="V4" s="1">
         <v>-65433.267830645171</v>
       </c>
-      <c r="W4" s="2">
+      <c r="W4" s="1">
         <v>-179924.37934408596</v>
       </c>
-      <c r="X4" s="2">
+      <c r="X4" s="1">
         <v>-118636.0591263441</v>
       </c>
-      <c r="Y4" s="2">
+      <c r="Y4" s="1">
         <v>-174025.80488440863</v>
       </c>
-      <c r="Z4" s="2">
+      <c r="Z4" s="1">
         <v>-94958.288220430142</v>
       </c>
-      <c r="AA4" s="2">
+      <c r="AA4" s="1">
         <v>-37635.269812499988</v>
       </c>
-      <c r="AB4" s="2">
+      <c r="AB4" s="1">
         <v>19005.213440860185</v>
       </c>
     </row>
     <row r="5" spans="1:28" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="6">
+      <c r="A5" s="5">
         <v>45001</v>
       </c>
-      <c r="B5" s="6"/>
-      <c r="C5" s="2">
+      <c r="B5" s="5"/>
+      <c r="C5" s="1">
         <v>5988261.9422258064</v>
       </c>
-      <c r="D5" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E5" s="2">
+      <c r="D5" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E5" s="1">
         <v>272473.61438440857</v>
       </c>
-      <c r="F5" s="2">
+      <c r="F5" s="1">
         <v>279036.8513844086</v>
       </c>
-      <c r="G5" s="2">
+      <c r="G5" s="1">
         <v>296640.2863844086</v>
       </c>
-      <c r="H5" s="2">
+      <c r="H5" s="1">
         <v>268300.85138440866</v>
       </c>
-      <c r="I5" s="2">
+      <c r="I5" s="1">
         <v>353103.77738440863</v>
       </c>
-      <c r="J5" s="2">
+      <c r="J5" s="1">
         <v>251285.68038440862</v>
       </c>
-      <c r="K5" s="2">
+      <c r="K5" s="1">
         <v>201028.1393844086</v>
       </c>
-      <c r="L5" s="2">
+      <c r="L5" s="1">
         <v>221961.67038440859</v>
       </c>
-      <c r="M5" s="2">
+      <c r="M5" s="1">
         <v>230433.84138440862</v>
       </c>
-      <c r="N5" s="2">
+      <c r="N5" s="1">
         <v>297655.44538440858</v>
       </c>
-      <c r="O5" s="2">
+      <c r="O5" s="1">
         <v>246255.44538440864</v>
       </c>
-      <c r="P5" s="2">
+      <c r="P5" s="1">
         <v>288046.18938440864</v>
       </c>
-      <c r="Q5" s="2">
+      <c r="Q5" s="1">
         <v>235269.31938440859</v>
       </c>
-      <c r="R5" s="2">
+      <c r="R5" s="1">
         <v>189320.0903844086</v>
       </c>
-      <c r="S5" s="2">
+      <c r="S5" s="1">
         <v>263931.43538440857</v>
       </c>
-      <c r="T5" s="2">
+      <c r="T5" s="1">
         <v>259097.67238440865</v>
       </c>
-      <c r="U5" s="2">
+      <c r="U5" s="1">
         <v>262439.67738440866</v>
       </c>
-      <c r="V5" s="2">
+      <c r="V5" s="1">
         <v>229208.78538440861</v>
       </c>
-      <c r="W5" s="2">
+      <c r="W5" s="1">
         <v>292788.00638440863</v>
       </c>
-      <c r="X5" s="2">
+      <c r="X5" s="1">
         <v>229072.57638440863</v>
       </c>
-      <c r="Y5" s="2">
+      <c r="Y5" s="1">
         <v>164200.46438440861</v>
       </c>
-      <c r="Z5" s="2">
+      <c r="Z5" s="1">
         <v>206663.10438440862</v>
       </c>
-      <c r="AA5" s="2">
+      <c r="AA5" s="1">
         <v>278031.90638440859</v>
       </c>
-      <c r="AB5" s="2">
+      <c r="AB5" s="1">
         <v>172017.11138440861</v>
       </c>
     </row>
     <row r="6" spans="1:28" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="6">
+      <c r="A6" s="5">
         <v>45001</v>
       </c>
       <c r="C6">
         <v>5913378.0342423376</v>
       </c>
-      <c r="D6" s="2" t="s">
-        <v>39</v>
+      <c r="D6" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="E6">
         <v>259474.78082567203</v>
@@ -2083,16 +2154,16 @@
       <c r="AA6">
         <v>272026.69201518816</v>
       </c>
-      <c r="AB6" s="2">
+      <c r="AB6" s="1">
         <v>256342.71585322585</v>
       </c>
     </row>
     <row r="7" spans="1:28" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="6">
+      <c r="A7" s="5">
         <v>45001</v>
       </c>
-      <c r="D7" s="2" t="s">
-        <v>40</v>
+      <c r="D7" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="E7">
         <v>12998.833558736544</v>
@@ -2163,12 +2234,12 @@
       <c r="AA7">
         <v>6005.2143692204263</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AB7" s="1">
         <v>-84325.604468817241</v>
       </c>
     </row>
     <row r="8" spans="1:28" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="6"/>
+      <c r="A8" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -2189,596 +2260,596 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="16.8" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="4" max="4" width="29.6328125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="29.6328125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:28" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="K1" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="L1" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="M1" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="N1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="O1" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="P1" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="Q1" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="R1" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="S1" s="3" t="s">
+      <c r="S1" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="T1" s="3" t="s">
+      <c r="T1" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="U1" s="3" t="s">
+      <c r="U1" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="V1" s="3" t="s">
+      <c r="V1" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="W1" s="3" t="s">
+      <c r="W1" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="X1" s="3" t="s">
+      <c r="X1" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="Y1" s="3" t="s">
+      <c r="Y1" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="Z1" s="3" t="s">
+      <c r="Z1" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="AA1" s="3" t="s">
+      <c r="AA1" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="AB1" s="4">
+      <c r="AB1" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:28" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="6">
+      <c r="A2" s="5">
         <v>45000</v>
       </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="2">
+      <c r="B2" s="5"/>
+      <c r="C2" s="1">
         <v>13121.266774193551</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="2">
+      <c r="E2" s="1">
         <v>600.10736559139787</v>
       </c>
-      <c r="F2" s="2">
+      <c r="F2" s="1">
         <v>643.78736559139793</v>
       </c>
-      <c r="G2" s="2">
+      <c r="G2" s="1">
         <v>609.23736559139786</v>
       </c>
-      <c r="H2" s="2">
+      <c r="H2" s="1">
         <v>500.8873655913979</v>
       </c>
-      <c r="I2" s="2">
+      <c r="I2" s="1">
         <v>421.43736559139785</v>
       </c>
-      <c r="J2" s="2">
+      <c r="J2" s="1">
         <v>507.95736559139783</v>
       </c>
-      <c r="K2" s="2">
+      <c r="K2" s="1">
         <v>704.8073655913978</v>
       </c>
-      <c r="L2" s="2">
+      <c r="L2" s="1">
         <v>466.64736559139783</v>
       </c>
-      <c r="M2" s="2">
+      <c r="M2" s="1">
         <v>537.87736559139785</v>
       </c>
-      <c r="N2" s="2">
+      <c r="N2" s="1">
         <v>500.46736559139777</v>
       </c>
-      <c r="O2" s="2">
+      <c r="O2" s="1">
         <v>643.41736559139781</v>
       </c>
-      <c r="P2" s="2">
+      <c r="P2" s="1">
         <v>551.04736559139781</v>
       </c>
-      <c r="Q2" s="2">
+      <c r="Q2" s="1">
         <v>580.28736559139782</v>
       </c>
-      <c r="R2" s="2">
+      <c r="R2" s="1">
         <v>468.3873655913979</v>
       </c>
-      <c r="S2" s="2">
+      <c r="S2" s="1">
         <v>508.53736559139782</v>
       </c>
-      <c r="T2" s="2">
+      <c r="T2" s="1">
         <v>557.28736559139782</v>
       </c>
-      <c r="U2" s="2">
+      <c r="U2" s="1">
         <v>605.93736559139779</v>
       </c>
-      <c r="V2" s="2">
+      <c r="V2" s="1">
         <v>458.92736559139786</v>
       </c>
-      <c r="W2" s="2">
+      <c r="W2" s="1">
         <v>579.85736559139787</v>
       </c>
-      <c r="X2" s="2">
+      <c r="X2" s="1">
         <v>503.03736559139787</v>
       </c>
-      <c r="Y2" s="2">
+      <c r="Y2" s="1">
         <v>560.27736559139794</v>
       </c>
-      <c r="Z2" s="2">
+      <c r="Z2" s="1">
         <v>501.89736559139783</v>
       </c>
-      <c r="AA2" s="2">
+      <c r="AA2" s="1">
         <v>555.18736559139791</v>
       </c>
-      <c r="AB2" s="2">
+      <c r="AB2" s="1">
         <v>553.96736559139788</v>
       </c>
     </row>
     <row r="3" spans="1:28" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="6">
+      <c r="A3" s="5">
         <v>45000</v>
       </c>
-      <c r="B3" s="6"/>
-      <c r="C3" s="2">
+      <c r="B3" s="5"/>
+      <c r="C3" s="1">
         <v>452.39206818814472</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="E3" s="2">
+      <c r="D3" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E3" s="1">
         <v>459.22727862675475</v>
       </c>
-      <c r="F3" s="2">
+      <c r="F3" s="1">
         <v>415.42717778986832</v>
       </c>
-      <c r="G3" s="2">
+      <c r="G3" s="1">
         <v>464.14962928268778</v>
       </c>
-      <c r="H3" s="2">
+      <c r="H3" s="1">
         <v>426.21927213584922</v>
       </c>
-      <c r="I3" s="2">
+      <c r="I3" s="1">
         <v>450.02343614754164</v>
       </c>
-      <c r="J3" s="2">
+      <c r="J3" s="1">
         <v>353.47390065968409</v>
       </c>
-      <c r="K3" s="2">
+      <c r="K3" s="1">
         <v>469.97250675220715</v>
       </c>
-      <c r="L3" s="2">
+      <c r="L3" s="1">
         <v>467.06012817235182</v>
       </c>
-      <c r="M3" s="2">
+      <c r="M3" s="1">
         <v>393.88107575686547</v>
       </c>
-      <c r="N3" s="2">
+      <c r="N3" s="1">
         <v>373.02486879199915</v>
       </c>
-      <c r="O3" s="2">
+      <c r="O3" s="1">
         <v>590.91080333982791</v>
       </c>
-      <c r="P3" s="2">
+      <c r="P3" s="1">
         <v>553.56704964378207</v>
       </c>
-      <c r="Q3" s="2">
+      <c r="Q3" s="1">
         <v>437.27170093701255</v>
       </c>
-      <c r="R3" s="2">
+      <c r="R3" s="1">
         <v>478.44977223383125</v>
       </c>
-      <c r="S3" s="2">
+      <c r="S3" s="1">
         <v>375.16301906849662</v>
       </c>
-      <c r="T3" s="2">
+      <c r="T3" s="1">
         <v>393.88049853143275</v>
       </c>
-      <c r="U3" s="2">
+      <c r="U3" s="1">
         <v>392.60880726875229</v>
       </c>
-      <c r="V3" s="2">
+      <c r="V3" s="1">
         <v>525.42129858322039</v>
       </c>
-      <c r="W3" s="2">
+      <c r="W3" s="1">
         <v>445.95924572014235</v>
       </c>
-      <c r="X3" s="2">
+      <c r="X3" s="1">
         <v>513.66054305057617</v>
       </c>
-      <c r="Y3" s="2">
+      <c r="Y3" s="1">
         <v>431.39347621027559</v>
       </c>
-      <c r="Z3" s="2">
+      <c r="Z3" s="1">
         <v>480.55138145666803</v>
       </c>
-      <c r="AA3" s="2">
+      <c r="AA3" s="1">
         <v>487.5840881142035</v>
       </c>
-      <c r="AB3" s="2">
+      <c r="AB3" s="1">
         <v>463.45746036920576</v>
       </c>
     </row>
     <row r="4" spans="1:28" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="6">
+      <c r="A4" s="5">
         <v>45000</v>
       </c>
-      <c r="B4" s="6"/>
-      <c r="C4" s="2">
+      <c r="B4" s="5"/>
+      <c r="C4" s="1">
         <v>462.99541685332491</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E4" s="1">
+        <v>345.3</v>
+      </c>
+      <c r="F4" s="1">
+        <v>301.75</v>
+      </c>
+      <c r="G4" s="1">
+        <v>284.75</v>
+      </c>
+      <c r="H4" s="1">
+        <v>252.75</v>
+      </c>
+      <c r="I4" s="1">
+        <v>262.25</v>
+      </c>
+      <c r="J4" s="1">
+        <v>302.75</v>
+      </c>
+      <c r="K4" s="1">
+        <v>401.04999999999995</v>
+      </c>
+      <c r="L4" s="1">
+        <v>489.25000000000006</v>
+      </c>
+      <c r="M4" s="1">
+        <v>528.74999999999989</v>
+      </c>
+      <c r="N4" s="1">
+        <v>509.25000000000006</v>
+      </c>
+      <c r="O4" s="1">
+        <v>448.35</v>
+      </c>
+      <c r="P4" s="1">
+        <v>399.20000000000005</v>
+      </c>
+      <c r="Q4" s="1">
+        <v>294</v>
+      </c>
+      <c r="R4" s="1">
+        <v>315</v>
+      </c>
+      <c r="S4" s="1">
+        <v>376.15000000000003</v>
+      </c>
+      <c r="T4" s="1">
+        <v>477.80000000000013</v>
+      </c>
+      <c r="U4" s="1">
+        <v>585.5</v>
+      </c>
+      <c r="V4" s="1">
+        <v>668</v>
+      </c>
+      <c r="W4" s="1">
+        <v>756.24999999999989</v>
+      </c>
+      <c r="X4" s="1">
+        <v>749.5</v>
+      </c>
+      <c r="Y4" s="1">
+        <v>741.99999999999989</v>
+      </c>
+      <c r="Z4" s="1">
+        <v>669.75</v>
+      </c>
+      <c r="AA4" s="1">
+        <v>555.37250000000006</v>
+      </c>
+      <c r="AB4" s="1">
+        <v>429.15000000000003</v>
+      </c>
+    </row>
+    <row r="5" spans="1:28" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="5">
+        <v>45001</v>
+      </c>
+      <c r="B5" s="5"/>
+      <c r="C5" s="1">
+        <v>13486.966774193546</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E5" s="1">
+        <v>639.3073655913978</v>
+      </c>
+      <c r="F5" s="1">
+        <v>611.61736559139786</v>
+      </c>
+      <c r="G5" s="1">
+        <v>631.8173655913979</v>
+      </c>
+      <c r="H5" s="1">
+        <v>611.50736559139796</v>
+      </c>
+      <c r="I5" s="1">
+        <v>634.82736559139789</v>
+      </c>
+      <c r="J5" s="1">
+        <v>520.66736559139781</v>
+      </c>
+      <c r="K5" s="1">
+        <v>572.4473655913979</v>
+      </c>
+      <c r="L5" s="1">
+        <v>466.89736559139783</v>
+      </c>
+      <c r="M5" s="1">
+        <v>508.03736559139782</v>
+      </c>
+      <c r="N5" s="1">
+        <v>611.63736559139784</v>
+      </c>
+      <c r="O5" s="1">
+        <v>592.54736559139781</v>
+      </c>
+      <c r="P5" s="1">
+        <v>619.44736559139778</v>
+      </c>
+      <c r="Q5" s="1">
+        <v>527.87736559139785</v>
+      </c>
+      <c r="R5" s="1">
+        <v>491.8173655913979</v>
+      </c>
+      <c r="S5" s="1">
+        <v>531.11736559139786</v>
+      </c>
+      <c r="T5" s="1">
+        <v>610.05736559139791</v>
+      </c>
+      <c r="U5" s="1">
+        <v>573.21736559139788</v>
+      </c>
+      <c r="V5" s="1">
+        <v>538.79736559139792</v>
+      </c>
+      <c r="W5" s="1">
+        <v>597.05736559139791</v>
+      </c>
+      <c r="X5" s="1">
+        <v>530.47736559139776</v>
+      </c>
+      <c r="Y5" s="1">
+        <v>362.60736559139787</v>
+      </c>
+      <c r="Z5" s="1">
+        <v>620.20736559139777</v>
+      </c>
+      <c r="AA5" s="1">
+        <v>527.89736559139783</v>
+      </c>
+      <c r="AB5" s="1">
+        <v>555.07736559139789</v>
+      </c>
+    </row>
+    <row r="6" spans="1:28" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="5">
+        <v>45001</v>
+      </c>
+      <c r="B6" s="5"/>
+      <c r="C6" s="1">
+        <v>444.00361048445416</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E4" s="2">
-        <v>345.3</v>
-      </c>
-      <c r="F4" s="2">
-        <v>301.75</v>
-      </c>
-      <c r="G4" s="2">
-        <v>284.75</v>
-      </c>
-      <c r="H4" s="2">
-        <v>252.75</v>
-      </c>
-      <c r="I4" s="2">
-        <v>262.25</v>
-      </c>
-      <c r="J4" s="2">
-        <v>302.75</v>
-      </c>
-      <c r="K4" s="2">
-        <v>401.04999999999995</v>
-      </c>
-      <c r="L4" s="2">
-        <v>489.25000000000006</v>
-      </c>
-      <c r="M4" s="2">
-        <v>528.74999999999989</v>
-      </c>
-      <c r="N4" s="2">
-        <v>509.25000000000006</v>
-      </c>
-      <c r="O4" s="2">
-        <v>448.35</v>
-      </c>
-      <c r="P4" s="2">
-        <v>399.20000000000005</v>
-      </c>
-      <c r="Q4" s="2">
-        <v>294</v>
-      </c>
-      <c r="R4" s="2">
-        <v>315</v>
-      </c>
-      <c r="S4" s="2">
-        <v>376.15000000000003</v>
-      </c>
-      <c r="T4" s="2">
-        <v>477.80000000000013</v>
-      </c>
-      <c r="U4" s="2">
-        <v>585.5</v>
-      </c>
-      <c r="V4" s="2">
-        <v>668</v>
-      </c>
-      <c r="W4" s="2">
-        <v>756.24999999999989</v>
-      </c>
-      <c r="X4" s="2">
-        <v>749.5</v>
-      </c>
-      <c r="Y4" s="2">
-        <v>741.99999999999989</v>
-      </c>
-      <c r="Z4" s="2">
-        <v>669.75</v>
-      </c>
-      <c r="AA4" s="2">
-        <v>555.37250000000006</v>
-      </c>
-      <c r="AB4" s="2">
-        <v>429.15000000000003</v>
-      </c>
-    </row>
-    <row r="5" spans="1:28" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="6">
+      <c r="E6" s="1">
+        <v>426.20127508206338</v>
+      </c>
+      <c r="F6" s="1">
+        <v>456.22781020057607</v>
+      </c>
+      <c r="G6" s="1">
+        <v>469.50321808066383</v>
+      </c>
+      <c r="H6" s="1">
+        <v>438.75326199044366</v>
+      </c>
+      <c r="I6" s="1">
+        <v>556.22015767304106</v>
+      </c>
+      <c r="J6" s="1">
+        <v>482.62229782538196</v>
+      </c>
+      <c r="K6" s="1">
+        <v>351.17314091702656</v>
+      </c>
+      <c r="L6" s="1">
+        <v>475.39713594926747</v>
+      </c>
+      <c r="M6" s="1">
+        <v>453.57656147233268</v>
+      </c>
+      <c r="N6" s="1">
+        <v>486.65346842667594</v>
+      </c>
+      <c r="O6" s="1">
+        <v>415.58778198031638</v>
+      </c>
+      <c r="P6" s="1">
+        <v>465.00510839917069</v>
+      </c>
+      <c r="Q6" s="1">
+        <v>445.68934892828537</v>
+      </c>
+      <c r="R6" s="1">
+        <v>384.93982447479459</v>
+      </c>
+      <c r="S6" s="1">
+        <v>496.93618112170287</v>
+      </c>
+      <c r="T6" s="1">
+        <v>424.71034200732231</v>
+      </c>
+      <c r="U6" s="1">
+        <v>457.83622956650186</v>
+      </c>
+      <c r="V6" s="1">
+        <v>425.40814046635717</v>
+      </c>
+      <c r="W6" s="1">
+        <v>490.38505051251803</v>
+      </c>
+      <c r="X6" s="1">
+        <v>431.82346928040783</v>
+      </c>
+      <c r="Y6" s="1">
+        <v>452.83267789280654</v>
+      </c>
+      <c r="Z6" s="1">
+        <v>333.21614003623665</v>
+      </c>
+      <c r="AA6" s="1">
+        <v>526.67795769909253</v>
+      </c>
+      <c r="AB6" s="1">
+        <v>309.89754230229846</v>
+      </c>
+    </row>
+    <row r="7" spans="1:28" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="5">
         <v>45001</v>
       </c>
-      <c r="B5" s="6"/>
-      <c r="C5" s="2">
-        <v>13486.966774193546</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E5" s="2">
-        <v>639.3073655913978</v>
-      </c>
-      <c r="F5" s="2">
-        <v>611.61736559139786</v>
-      </c>
-      <c r="G5" s="2">
-        <v>631.8173655913979</v>
-      </c>
-      <c r="H5" s="2">
-        <v>611.50736559139796</v>
-      </c>
-      <c r="I5" s="2">
-        <v>634.82736559139789</v>
-      </c>
-      <c r="J5" s="2">
-        <v>520.66736559139781</v>
-      </c>
-      <c r="K5" s="2">
-        <v>572.4473655913979</v>
-      </c>
-      <c r="L5" s="2">
-        <v>466.89736559139783</v>
-      </c>
-      <c r="M5" s="2">
-        <v>508.03736559139782</v>
-      </c>
-      <c r="N5" s="2">
-        <v>611.63736559139784</v>
-      </c>
-      <c r="O5" s="2">
-        <v>592.54736559139781</v>
-      </c>
-      <c r="P5" s="2">
-        <v>619.44736559139778</v>
-      </c>
-      <c r="Q5" s="2">
-        <v>527.87736559139785</v>
-      </c>
-      <c r="R5" s="2">
-        <v>491.8173655913979</v>
-      </c>
-      <c r="S5" s="2">
-        <v>531.11736559139786</v>
-      </c>
-      <c r="T5" s="2">
-        <v>610.05736559139791</v>
-      </c>
-      <c r="U5" s="2">
-        <v>573.21736559139788</v>
-      </c>
-      <c r="V5" s="2">
-        <v>538.79736559139792</v>
-      </c>
-      <c r="W5" s="2">
-        <v>597.05736559139791</v>
-      </c>
-      <c r="X5" s="2">
-        <v>530.47736559139776</v>
-      </c>
-      <c r="Y5" s="2">
-        <v>362.60736559139787</v>
-      </c>
-      <c r="Z5" s="2">
-        <v>620.20736559139777</v>
-      </c>
-      <c r="AA5" s="2">
-        <v>527.89736559139783</v>
-      </c>
-      <c r="AB5" s="2">
-        <v>555.07736559139789</v>
-      </c>
-    </row>
-    <row r="6" spans="1:28" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="6">
-        <v>45001</v>
-      </c>
-      <c r="B6" s="6"/>
-      <c r="C6" s="2">
-        <v>444.00361048445416</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="E6" s="2">
-        <v>426.20127508206338</v>
-      </c>
-      <c r="F6" s="2">
-        <v>456.22781020057607</v>
-      </c>
-      <c r="G6" s="2">
-        <v>469.50321808066383</v>
-      </c>
-      <c r="H6" s="2">
-        <v>438.75326199044366</v>
-      </c>
-      <c r="I6" s="2">
-        <v>556.22015767304106</v>
-      </c>
-      <c r="J6" s="2">
-        <v>482.62229782538196</v>
-      </c>
-      <c r="K6" s="2">
-        <v>351.17314091702656</v>
-      </c>
-      <c r="L6" s="2">
-        <v>475.39713594926747</v>
-      </c>
-      <c r="M6" s="2">
-        <v>453.57656147233268</v>
-      </c>
-      <c r="N6" s="2">
-        <v>486.65346842667594</v>
-      </c>
-      <c r="O6" s="2">
-        <v>415.58778198031638</v>
-      </c>
-      <c r="P6" s="2">
-        <v>465.00510839917069</v>
-      </c>
-      <c r="Q6" s="2">
-        <v>445.68934892828537</v>
-      </c>
-      <c r="R6" s="2">
-        <v>384.93982447479459</v>
-      </c>
-      <c r="S6" s="2">
-        <v>496.93618112170287</v>
-      </c>
-      <c r="T6" s="2">
-        <v>424.71034200732231</v>
-      </c>
-      <c r="U6" s="2">
-        <v>457.83622956650186</v>
-      </c>
-      <c r="V6" s="2">
-        <v>425.40814046635717</v>
-      </c>
-      <c r="W6" s="2">
-        <v>490.38505051251803</v>
-      </c>
-      <c r="X6" s="2">
-        <v>431.82346928040783</v>
-      </c>
-      <c r="Y6" s="2">
-        <v>452.83267789280654</v>
-      </c>
-      <c r="Z6" s="2">
-        <v>333.21614003623665</v>
-      </c>
-      <c r="AA6" s="2">
-        <v>526.67795769909253</v>
-      </c>
-      <c r="AB6" s="2">
-        <v>309.89754230229846</v>
-      </c>
-    </row>
-    <row r="7" spans="1:28" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="6">
-        <v>45001</v>
-      </c>
-      <c r="B7" s="6"/>
-      <c r="C7" s="2">
+      <c r="B7" s="5"/>
+      <c r="C7" s="1">
         <v>438.45129399719519</v>
       </c>
-      <c r="D7" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E7" s="2">
+      <c r="D7" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E7" s="1">
         <v>405.86859277875243</v>
       </c>
-      <c r="F7" s="2">
+      <c r="F7" s="1">
         <v>608.48139778845666</v>
       </c>
-      <c r="G7" s="2">
+      <c r="G7" s="1">
         <v>494.5519563383167</v>
       </c>
-      <c r="H7" s="2">
+      <c r="H7" s="1">
         <v>324.10475386971217</v>
       </c>
-      <c r="I7" s="2">
+      <c r="I7" s="1">
         <v>432.24188732390974</v>
       </c>
-      <c r="J7" s="2">
+      <c r="J7" s="1">
         <v>432.92601387611211</v>
       </c>
-      <c r="K7" s="2">
+      <c r="K7" s="1">
         <v>431.40301420936379</v>
       </c>
-      <c r="L7" s="2">
+      <c r="L7" s="1">
         <v>594.89142883598663</v>
       </c>
-      <c r="M7" s="2">
+      <c r="M7" s="1">
         <v>433.60258961457725</v>
       </c>
-      <c r="N7" s="2">
+      <c r="N7" s="1">
         <v>492.36453223170145</v>
       </c>
-      <c r="O7" s="2">
+      <c r="O7" s="1">
         <v>377.48599564587232</v>
       </c>
-      <c r="P7" s="2">
+      <c r="P7" s="1">
         <v>377.9077033793389</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="Q7" s="1">
         <v>498.49792724467909</v>
       </c>
-      <c r="R7" s="2">
+      <c r="R7" s="1">
         <v>506.65239048244689</v>
       </c>
-      <c r="S7" s="2">
+      <c r="S7" s="1">
         <v>493.41063700761521</v>
       </c>
-      <c r="T7" s="2">
+      <c r="T7" s="1">
         <v>446.67614876007156</v>
       </c>
-      <c r="U7" s="2">
+      <c r="U7" s="1">
         <v>326.45198577956927</v>
       </c>
-      <c r="V7" s="2">
+      <c r="V7" s="1">
         <v>384.30343056359783</v>
       </c>
-      <c r="W7" s="2">
+      <c r="W7" s="1">
         <v>311.09733580966576</v>
       </c>
-      <c r="X7" s="2">
+      <c r="X7" s="1">
         <v>326.57403431368726</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Y7" s="1">
         <v>335.38373914170319</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="Z7" s="1">
         <v>511.64050585188431</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AA7" s="1">
         <v>515.30223438497285</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AB7" s="1">
         <v>461.81439154902267</v>
       </c>
     </row>
@@ -2801,7 +2872,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="16.8" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.81640625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="15.81640625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -2812,56 +2883,56 @@
       <c r="C1" s="7"/>
       <c r="D1" s="7"/>
       <c r="E1" s="7"/>
-      <c r="F1" s="2"/>
+      <c r="F1" s="1"/>
     </row>
     <row r="2" spans="1:6" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="B2" s="5" t="s">
+      <c r="A2" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="B2" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="C2" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="D2" s="3" t="s">
         <v>46</v>
       </c>
+      <c r="E2" s="3" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="3" spans="1:6" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="B3" s="5">
+      <c r="A3" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B3" s="3">
         <v>3078.5041935483887</v>
       </c>
-      <c r="C3" s="5">
+      <c r="C3" s="3">
         <v>5604.2236559139674</v>
       </c>
-      <c r="D3" s="5">
+      <c r="D3" s="3">
         <v>8781.5478494623676</v>
       </c>
-      <c r="E3" s="5">
+      <c r="E3" s="3">
         <v>9143.9578494623729</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="B4" s="5">
+      <c r="A4" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B4" s="3">
         <v>11.569742831481596</v>
       </c>
-      <c r="C4" s="5">
+      <c r="C4" s="3">
         <v>21.061990626783615</v>
       </c>
-      <c r="D4" s="5">
+      <c r="D4" s="3">
         <v>33.003122260984142</v>
       </c>
-      <c r="E4" s="5">
+      <c r="E4" s="3">
         <v>34.365144280750933</v>
       </c>
     </row>
@@ -2876,104 +2947,50 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:AB1"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="3" width="8.7265625" customWidth="1"/>
-    <col min="4" max="4" width="20.90625" customWidth="1"/>
-    <col min="5" max="28" width="8.7265625" style="1"/>
+    <col min="2" max="2" width="9.1796875"/>
+    <col min="3" max="3" width="29.6328125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="27.36328125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="8.7265625" customWidth="1"/>
+    <col min="6" max="6" width="20.90625" customWidth="1"/>
+    <col min="7" max="7" width="8.7265625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C1" s="2" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="N1" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="O1" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="P1" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q1" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="R1" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="S1" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="T1" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="U1" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="V1" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="W1" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="X1" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y1" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="Z1" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="AA1" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB1" s="4">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B2" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>

--- a/江西/导出模板/代理购电合同分析结果.xlsx
+++ b/江西/导出模板/代理购电合同分析结果.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\code\python\calCase\江西\导出模板\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8E239485-99EC-41B5-AC8A-4F12726B0928}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E3615114-5794-49B8-8348-E06EB700B515}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="768" yWindow="768" windowWidth="17280" windowHeight="8964" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="50">
   <si>
     <t>数据项</t>
   </si>
@@ -694,7 +694,7 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AB11"/>
+  <dimension ref="A1:AB16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D9" sqref="D9"/>
@@ -1631,6 +1631,421 @@
         <v>-151.91684924672421</v>
       </c>
     </row>
+    <row r="12" spans="1:28" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12">
+        <v>11924218.955451617</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E12">
+        <v>548059.28676881723</v>
+      </c>
+      <c r="F12">
+        <v>546483.61976881721</v>
+      </c>
+      <c r="G12">
+        <v>579417.58376881725</v>
+      </c>
+      <c r="H12">
+        <v>481788.69976881729</v>
+      </c>
+      <c r="I12">
+        <v>542760.46876881726</v>
+      </c>
+      <c r="J12">
+        <v>430835.35176881723</v>
+      </c>
+      <c r="K12">
+        <v>532268.22376881714</v>
+      </c>
+      <c r="L12">
+        <v>439914.04876881721</v>
+      </c>
+      <c r="M12">
+        <v>442293.55676881725</v>
+      </c>
+      <c r="N12">
+        <v>484342.21876881714</v>
+      </c>
+      <c r="O12">
+        <v>626457.71776881721</v>
+      </c>
+      <c r="P12">
+        <v>593087.85376881715</v>
+      </c>
+      <c r="Q12">
+        <v>489012.56276881718</v>
+      </c>
+      <c r="R12">
+        <v>413419.91876881715</v>
+      </c>
+      <c r="S12">
+        <v>454715.8487688172</v>
+      </c>
+      <c r="T12">
+        <v>478602.29776881728</v>
+      </c>
+      <c r="U12">
+        <v>500336.02376881725</v>
+      </c>
+      <c r="V12">
+        <v>470338.99776881724</v>
+      </c>
+      <c r="W12">
+        <v>551380.75976881734</v>
+      </c>
+      <c r="X12">
+        <v>487463.0227688172</v>
+      </c>
+      <c r="Y12">
+        <v>405900.46476881718</v>
+      </c>
+      <c r="Z12">
+        <v>447850.57676881721</v>
+      </c>
+      <c r="AA12">
+        <v>548732.43176881725</v>
+      </c>
+      <c r="AB12" s="1">
+        <v>428757.41976881714</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13">
+        <v>26608.233548387099</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E13">
+        <v>1239.4147311827955</v>
+      </c>
+      <c r="F13">
+        <v>1255.4047311827958</v>
+      </c>
+      <c r="G13">
+        <v>1241.0547311827956</v>
+      </c>
+      <c r="H13">
+        <v>1112.3947311827958</v>
+      </c>
+      <c r="I13">
+        <v>1056.2647311827959</v>
+      </c>
+      <c r="J13">
+        <v>1028.6247311827956</v>
+      </c>
+      <c r="K13">
+        <v>1277.2547311827955</v>
+      </c>
+      <c r="L13">
+        <v>933.54473118279566</v>
+      </c>
+      <c r="M13">
+        <v>1045.9147311827958</v>
+      </c>
+      <c r="N13">
+        <v>1112.1047311827956</v>
+      </c>
+      <c r="O13">
+        <v>1235.9647311827957</v>
+      </c>
+      <c r="P13">
+        <v>1170.4947311827957</v>
+      </c>
+      <c r="Q13">
+        <v>1108.1647311827955</v>
+      </c>
+      <c r="R13">
+        <v>960.20473118279574</v>
+      </c>
+      <c r="S13">
+        <v>1039.6547311827958</v>
+      </c>
+      <c r="T13">
+        <v>1167.3447311827956</v>
+      </c>
+      <c r="U13">
+        <v>1179.1547311827958</v>
+      </c>
+      <c r="V13">
+        <v>997.72473118279572</v>
+      </c>
+      <c r="W13">
+        <v>1176.9147311827958</v>
+      </c>
+      <c r="X13">
+        <v>1033.5147311827957</v>
+      </c>
+      <c r="Y13">
+        <v>922.8847311827958</v>
+      </c>
+      <c r="Z13">
+        <v>1122.1047311827956</v>
+      </c>
+      <c r="AA13">
+        <v>1083.0847311827958</v>
+      </c>
+      <c r="AB13" s="1">
+        <v>1109.0447311827957</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14">
+        <v>448.14019441641676</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E14">
+        <v>442.19200642047758</v>
+      </c>
+      <c r="F14">
+        <v>435.30473176880622</v>
+      </c>
+      <c r="G14">
+        <v>466.87512581866503</v>
+      </c>
+      <c r="H14">
+        <v>433.10947657630237</v>
+      </c>
+      <c r="I14">
+        <v>513.84889861941986</v>
+      </c>
+      <c r="J14">
+        <v>418.84599767828644</v>
+      </c>
+      <c r="K14">
+        <v>416.72832425205644</v>
+      </c>
+      <c r="L14">
+        <v>471.22974837150946</v>
+      </c>
+      <c r="M14">
+        <v>422.87726100639179</v>
+      </c>
+      <c r="N14">
+        <v>435.51853093340208</v>
+      </c>
+      <c r="O14">
+        <v>506.85727671962661</v>
+      </c>
+      <c r="P14">
+        <v>506.69843953034837</v>
+      </c>
+      <c r="Q14">
+        <v>441.2814710741348</v>
+      </c>
+      <c r="R14">
+        <v>430.55392807694233</v>
+      </c>
+      <c r="S14">
+        <v>437.37198045691139</v>
+      </c>
+      <c r="T14">
+        <v>409.99225420230425</v>
+      </c>
+      <c r="U14">
+        <v>424.31753063224897</v>
+      </c>
+      <c r="V14">
+        <v>471.41158585017092</v>
+      </c>
+      <c r="W14">
+        <v>468.49677819452677</v>
+      </c>
+      <c r="X14">
+        <v>471.65561173080232</v>
+      </c>
+      <c r="Y14">
+        <v>439.81707688305062</v>
+      </c>
+      <c r="Z14">
+        <v>399.11655688034028</v>
+      </c>
+      <c r="AA14">
+        <v>506.63850756123884</v>
+      </c>
+      <c r="AB14" s="1">
+        <v>386.60065524277599</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15">
+        <v>450.55468985578204</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E15">
+        <v>376.54212300592019</v>
+      </c>
+      <c r="F15">
+        <v>451.1856718592187</v>
+      </c>
+      <c r="G15">
+        <v>391.55956771605304</v>
+      </c>
+      <c r="H15">
+        <v>291.97524652278321</v>
+      </c>
+      <c r="I15">
+        <v>364.4170977131883</v>
+      </c>
+      <c r="J15">
+        <v>368.64225414610388</v>
+      </c>
+      <c r="K15">
+        <v>414.65378834206246</v>
+      </c>
+      <c r="L15">
+        <v>542.08485961978545</v>
+      </c>
+      <c r="M15">
+        <v>482.53357501439018</v>
+      </c>
+      <c r="N15">
+        <v>499.96329998605762</v>
+      </c>
+      <c r="O15">
+        <v>414.3763128583679</v>
+      </c>
+      <c r="P15">
+        <v>387.93172454545686</v>
+      </c>
+      <c r="Q15">
+        <v>391.41315895119925</v>
+      </c>
+      <c r="R15">
+        <v>413.16445465777127</v>
+      </c>
+      <c r="S15">
+        <v>436.0536956665411</v>
+      </c>
+      <c r="T15">
+        <v>461.53459511377537</v>
+      </c>
+      <c r="U15">
+        <v>459.57011450976501</v>
+      </c>
+      <c r="V15">
+        <v>514.79645651517319</v>
+      </c>
+      <c r="W15">
+        <v>530.42082994588452</v>
+      </c>
+      <c r="X15">
+        <v>532.4226373380136</v>
+      </c>
+      <c r="Y15">
+        <v>582.2378475072552</v>
+      </c>
+      <c r="Z15">
+        <v>582.36005313004341</v>
+      </c>
+      <c r="AA15">
+        <v>535.8421834442305</v>
+      </c>
+      <c r="AB15" s="1">
+        <v>445.49854203792165</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16">
+        <v>-2.4144954393652824</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E16">
+        <v>65.649883414557394</v>
+      </c>
+      <c r="F16">
+        <v>-15.88094009041248</v>
+      </c>
+      <c r="G16">
+        <v>75.315558102611988</v>
+      </c>
+      <c r="H16">
+        <v>141.13423005351916</v>
+      </c>
+      <c r="I16">
+        <v>149.43180090623156</v>
+      </c>
+      <c r="J16">
+        <v>50.203743532182557</v>
+      </c>
+      <c r="K16">
+        <v>2.0745359099939833</v>
+      </c>
+      <c r="L16">
+        <v>-70.855111248275989</v>
+      </c>
+      <c r="M16">
+        <v>-59.65631400799839</v>
+      </c>
+      <c r="N16">
+        <v>-64.444769052655545</v>
+      </c>
+      <c r="O16">
+        <v>92.480963861258715</v>
+      </c>
+      <c r="P16">
+        <v>118.76671498489151</v>
+      </c>
+      <c r="Q16">
+        <v>49.868312122935549</v>
+      </c>
+      <c r="R16">
+        <v>17.389473419171054</v>
+      </c>
+      <c r="S16">
+        <v>1.318284790370285</v>
+      </c>
+      <c r="T16">
+        <v>-51.542340911471115</v>
+      </c>
+      <c r="U16">
+        <v>-35.252583877516031</v>
+      </c>
+      <c r="V16">
+        <v>-43.384870665002268</v>
+      </c>
+      <c r="W16">
+        <v>-61.924051751357752</v>
+      </c>
+      <c r="X16">
+        <v>-60.767025607211281</v>
+      </c>
+      <c r="Y16">
+        <v>-142.42077062420458</v>
+      </c>
+      <c r="Z16">
+        <v>-183.24349624970313</v>
+      </c>
+      <c r="AA16">
+        <v>-29.203675882991661</v>
+      </c>
+      <c r="AB16" s="1">
+        <v>-58.897886795145666</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1642,7 +2057,7 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AB8"/>
+  <dimension ref="A1:AB10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C1" sqref="C1"/>
@@ -2239,7 +2654,250 @@
       </c>
     </row>
     <row r="8" spans="1:28" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="5"/>
+      <c r="A8" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8">
+        <v>11924218.955451617</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E8">
+        <v>548059.28676881723</v>
+      </c>
+      <c r="F8">
+        <v>546483.61976881721</v>
+      </c>
+      <c r="G8">
+        <v>579417.58376881725</v>
+      </c>
+      <c r="H8">
+        <v>481788.69976881729</v>
+      </c>
+      <c r="I8">
+        <v>542760.46876881726</v>
+      </c>
+      <c r="J8">
+        <v>430835.35176881723</v>
+      </c>
+      <c r="K8">
+        <v>532268.22376881714</v>
+      </c>
+      <c r="L8">
+        <v>439914.04876881721</v>
+      </c>
+      <c r="M8">
+        <v>442293.55676881725</v>
+      </c>
+      <c r="N8">
+        <v>484342.21876881714</v>
+      </c>
+      <c r="O8">
+        <v>626457.71776881721</v>
+      </c>
+      <c r="P8">
+        <v>593087.85376881715</v>
+      </c>
+      <c r="Q8">
+        <v>489012.56276881718</v>
+      </c>
+      <c r="R8">
+        <v>413419.91876881715</v>
+      </c>
+      <c r="S8">
+        <v>454715.8487688172</v>
+      </c>
+      <c r="T8">
+        <v>478602.29776881728</v>
+      </c>
+      <c r="U8">
+        <v>500336.02376881725</v>
+      </c>
+      <c r="V8">
+        <v>470338.99776881724</v>
+      </c>
+      <c r="W8">
+        <v>551380.75976881734</v>
+      </c>
+      <c r="X8">
+        <v>487463.0227688172</v>
+      </c>
+      <c r="Y8">
+        <v>405900.46476881718</v>
+      </c>
+      <c r="Z8">
+        <v>447850.57676881721</v>
+      </c>
+      <c r="AA8">
+        <v>548732.43176881725</v>
+      </c>
+      <c r="AB8" s="1">
+        <v>428757.41976881714</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9">
+        <v>11988464.414003765</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E9">
+        <v>466691.85416438169</v>
+      </c>
+      <c r="F9">
+        <v>566420.62709395157</v>
+      </c>
+      <c r="G9">
+        <v>485946.85405389784</v>
+      </c>
+      <c r="H9">
+        <v>324791.72586774197</v>
+      </c>
+      <c r="I9">
+        <v>384920.92775443551</v>
+      </c>
+      <c r="J9">
+        <v>379194.53957365593</v>
+      </c>
+      <c r="K9">
+        <v>529618.51296276879</v>
+      </c>
+      <c r="L9">
+        <v>506060.46455201611</v>
+      </c>
+      <c r="M9">
+        <v>504688.97439784935</v>
+      </c>
+      <c r="N9">
+        <v>556011.55133225804</v>
+      </c>
+      <c r="O9">
+        <v>512154.50813051075</v>
+      </c>
+      <c r="P9">
+        <v>454072.03963911289</v>
+      </c>
+      <c r="Q9">
+        <v>433750.25807056454</v>
+      </c>
+      <c r="R9">
+        <v>396722.46411895164</v>
+      </c>
+      <c r="S9">
+        <v>453345.28774946241</v>
+      </c>
+      <c r="T9">
+        <v>538769.97786465054</v>
+      </c>
+      <c r="U9">
+        <v>541904.27483440866</v>
+      </c>
+      <c r="V9">
+        <v>513625.156190457</v>
+      </c>
+      <c r="W9">
+        <v>624260.08848951606</v>
+      </c>
+      <c r="X9">
+        <v>550266.6389040323</v>
+      </c>
+      <c r="Y9">
+        <v>537338.41938118287</v>
+      </c>
+      <c r="Z9">
+        <v>653468.97086908598</v>
+      </c>
+      <c r="AA9">
+        <v>580362.48721209681</v>
+      </c>
+      <c r="AB9" s="1">
+        <v>494077.81079677423</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E10">
+        <v>81367.43260443554</v>
+      </c>
+      <c r="F10">
+        <v>-19937.007325134357</v>
+      </c>
+      <c r="G10">
+        <v>93470.729714919406</v>
+      </c>
+      <c r="H10">
+        <v>156996.97390107531</v>
+      </c>
+      <c r="I10">
+        <v>157839.54101438174</v>
+      </c>
+      <c r="J10">
+        <v>51640.812195161299</v>
+      </c>
+      <c r="K10">
+        <v>2649.7108060483588</v>
+      </c>
+      <c r="L10">
+        <v>-66146.4157831989</v>
+      </c>
+      <c r="M10">
+        <v>-62395.417629032105</v>
+      </c>
+      <c r="N10">
+        <v>-71669.332563440898</v>
+      </c>
+      <c r="O10">
+        <v>114303.20963830646</v>
+      </c>
+      <c r="P10">
+        <v>139015.81412970426</v>
+      </c>
+      <c r="Q10">
+        <v>55262.304698252643</v>
+      </c>
+      <c r="R10">
+        <v>16697.454649865511</v>
+      </c>
+      <c r="S10">
+        <v>1370.5610193547909</v>
+      </c>
+      <c r="T10">
+        <v>-60167.680095833261</v>
+      </c>
+      <c r="U10">
+        <v>-41568.251065591408</v>
+      </c>
+      <c r="V10">
+        <v>-43286.15842163976</v>
+      </c>
+      <c r="W10">
+        <v>-72879.328720698715</v>
+      </c>
+      <c r="X10">
+        <v>-62803.616135215096</v>
+      </c>
+      <c r="Y10">
+        <v>-131437.95461236569</v>
+      </c>
+      <c r="Z10">
+        <v>-205618.39410026878</v>
+      </c>
+      <c r="AA10">
+        <v>-31630.055443279562</v>
+      </c>
+      <c r="AB10" s="1">
+        <v>-65320.391027957085</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -2252,7 +2910,7 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AB7"/>
+  <dimension ref="A1:AB10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C1" sqref="C1"/>
@@ -2851,6 +3509,255 @@
       </c>
       <c r="AB7" s="1">
         <v>461.81439154902267</v>
+      </c>
+    </row>
+    <row r="8" spans="1:28" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8">
+        <v>26608.233548387099</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E8">
+        <v>1239.4147311827955</v>
+      </c>
+      <c r="F8">
+        <v>1255.4047311827958</v>
+      </c>
+      <c r="G8">
+        <v>1241.0547311827956</v>
+      </c>
+      <c r="H8">
+        <v>1112.3947311827958</v>
+      </c>
+      <c r="I8">
+        <v>1056.2647311827959</v>
+      </c>
+      <c r="J8">
+        <v>1028.6247311827956</v>
+      </c>
+      <c r="K8">
+        <v>1277.2547311827955</v>
+      </c>
+      <c r="L8">
+        <v>933.54473118279566</v>
+      </c>
+      <c r="M8">
+        <v>1045.9147311827958</v>
+      </c>
+      <c r="N8">
+        <v>1112.1047311827956</v>
+      </c>
+      <c r="O8">
+        <v>1235.9647311827957</v>
+      </c>
+      <c r="P8">
+        <v>1170.4947311827957</v>
+      </c>
+      <c r="Q8">
+        <v>1108.1647311827955</v>
+      </c>
+      <c r="R8">
+        <v>960.20473118279574</v>
+      </c>
+      <c r="S8">
+        <v>1039.6547311827958</v>
+      </c>
+      <c r="T8">
+        <v>1167.3447311827956</v>
+      </c>
+      <c r="U8">
+        <v>1179.1547311827958</v>
+      </c>
+      <c r="V8">
+        <v>997.72473118279572</v>
+      </c>
+      <c r="W8">
+        <v>1176.9147311827958</v>
+      </c>
+      <c r="X8">
+        <v>1033.5147311827957</v>
+      </c>
+      <c r="Y8">
+        <v>922.8847311827958</v>
+      </c>
+      <c r="Z8">
+        <v>1122.1047311827956</v>
+      </c>
+      <c r="AA8">
+        <v>1083.0847311827958</v>
+      </c>
+      <c r="AB8">
+        <v>1109.0447311827957</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9">
+        <v>448.14019441641676</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E9">
+        <v>442.19200642047758</v>
+      </c>
+      <c r="F9">
+        <v>435.30473176880622</v>
+      </c>
+      <c r="G9">
+        <v>466.87512581866503</v>
+      </c>
+      <c r="H9">
+        <v>433.10947657630237</v>
+      </c>
+      <c r="I9">
+        <v>513.84889861941986</v>
+      </c>
+      <c r="J9">
+        <v>418.84599767828644</v>
+      </c>
+      <c r="K9">
+        <v>416.72832425205644</v>
+      </c>
+      <c r="L9">
+        <v>471.22974837150946</v>
+      </c>
+      <c r="M9">
+        <v>422.87726100639179</v>
+      </c>
+      <c r="N9">
+        <v>435.51853093340208</v>
+      </c>
+      <c r="O9">
+        <v>506.85727671962661</v>
+      </c>
+      <c r="P9">
+        <v>506.69843953034837</v>
+      </c>
+      <c r="Q9">
+        <v>441.2814710741348</v>
+      </c>
+      <c r="R9">
+        <v>430.55392807694233</v>
+      </c>
+      <c r="S9">
+        <v>437.37198045691139</v>
+      </c>
+      <c r="T9">
+        <v>409.99225420230425</v>
+      </c>
+      <c r="U9">
+        <v>424.31753063224897</v>
+      </c>
+      <c r="V9">
+        <v>471.41158585017092</v>
+      </c>
+      <c r="W9">
+        <v>468.49677819452677</v>
+      </c>
+      <c r="X9">
+        <v>471.65561173080232</v>
+      </c>
+      <c r="Y9">
+        <v>439.81707688305062</v>
+      </c>
+      <c r="Z9">
+        <v>399.11655688034028</v>
+      </c>
+      <c r="AA9">
+        <v>506.63850756123884</v>
+      </c>
+      <c r="AB9">
+        <v>386.60065524277599</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10">
+        <v>450.55468985578204</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E10">
+        <v>376.54212300592019</v>
+      </c>
+      <c r="F10">
+        <v>451.1856718592187</v>
+      </c>
+      <c r="G10">
+        <v>391.55956771605304</v>
+      </c>
+      <c r="H10">
+        <v>291.97524652278321</v>
+      </c>
+      <c r="I10">
+        <v>364.4170977131883</v>
+      </c>
+      <c r="J10">
+        <v>368.64225414610388</v>
+      </c>
+      <c r="K10">
+        <v>414.65378834206246</v>
+      </c>
+      <c r="L10">
+        <v>542.08485961978545</v>
+      </c>
+      <c r="M10">
+        <v>482.53357501439018</v>
+      </c>
+      <c r="N10">
+        <v>499.96329998605762</v>
+      </c>
+      <c r="O10">
+        <v>414.3763128583679</v>
+      </c>
+      <c r="P10">
+        <v>387.93172454545686</v>
+      </c>
+      <c r="Q10">
+        <v>391.41315895119925</v>
+      </c>
+      <c r="R10">
+        <v>413.16445465777127</v>
+      </c>
+      <c r="S10">
+        <v>436.0536956665411</v>
+      </c>
+      <c r="T10">
+        <v>461.53459511377537</v>
+      </c>
+      <c r="U10">
+        <v>459.57011450976501</v>
+      </c>
+      <c r="V10">
+        <v>514.79645651517319</v>
+      </c>
+      <c r="W10">
+        <v>530.42082994588452</v>
+      </c>
+      <c r="X10">
+        <v>532.4226373380136</v>
+      </c>
+      <c r="Y10">
+        <v>582.2378475072552</v>
+      </c>
+      <c r="Z10">
+        <v>582.36005313004341</v>
+      </c>
+      <c r="AA10">
+        <v>535.8421834442305</v>
+      </c>
+      <c r="AB10">
+        <v>445.49854203792165</v>
       </c>
     </row>
   </sheetData>
